--- a/Instances/D_EGS-r.xlsx
+++ b/Instances/D_EGS-r.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07ed5a09c14e9223/BEP/Bestanden Bilge/Instances (Synchromodal transport planning with flexible services Mathematical model and heuristic approach)/Instances/6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxgu\PycharmProjects\BEP_try_3.0\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_7BAE928675DC6F2AE1E85D869446E9E15426D3EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F5AD0BD-218E-4F99-BCB8-6F291289C433}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC88FA0-5F56-4A3E-BF1D-3F73E5124BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6629" yWindow="-27" windowWidth="19563" windowHeight="10161" tabRatio="773" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4968" yWindow="888" windowWidth="17280" windowHeight="8964" tabRatio="773" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barge" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="144">
   <si>
     <t>N</t>
   </si>
@@ -63,48 +63,6 @@
     <t>Nuremberg</t>
   </si>
   <si>
-    <t>37.5</t>
-  </si>
-  <si>
-    <t>82.5</t>
-  </si>
-  <si>
-    <t>202.5</t>
-  </si>
-  <si>
-    <t>247.5</t>
-  </si>
-  <si>
-    <t>172.5</t>
-  </si>
-  <si>
-    <t>262.5</t>
-  </si>
-  <si>
-    <t>232.5</t>
-  </si>
-  <si>
-    <t>157.5</t>
-  </si>
-  <si>
-    <t>292.5</t>
-  </si>
-  <si>
-    <t>337.5</t>
-  </si>
-  <si>
-    <t>697.5</t>
-  </si>
-  <si>
-    <t>67.5</t>
-  </si>
-  <si>
-    <t>112.5</t>
-  </si>
-  <si>
-    <t>712.5</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -132,15 +90,6 @@
     <t>Barge1</t>
   </si>
   <si>
-    <t>0.6122</t>
-  </si>
-  <si>
-    <t>0.0213</t>
-  </si>
-  <si>
-    <t>0.2288</t>
-  </si>
-  <si>
     <t>Barge2</t>
   </si>
   <si>
@@ -288,15 +237,6 @@
     <t>Train1</t>
   </si>
   <si>
-    <t>7.54</t>
-  </si>
-  <si>
-    <t>0.0635</t>
-  </si>
-  <si>
-    <t>0.3146</t>
-  </si>
-  <si>
     <t>Train2</t>
   </si>
   <si>
@@ -394,15 +334,6 @@
   </si>
   <si>
     <t>Truck1</t>
-  </si>
-  <si>
-    <t>30.98</t>
-  </si>
-  <si>
-    <t>0.2758</t>
-  </si>
-  <si>
-    <t>0.8866</t>
   </si>
   <si>
     <t>Truck2</t>
@@ -588,7 +519,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -604,7 +535,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -927,16 +858,16 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -981,8 +912,8 @@
       <c r="C2" s="2">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
+      <c r="D2" s="2">
+        <v>37.5</v>
       </c>
       <c r="E2" s="2">
         <v>75</v>
@@ -1006,7 +937,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1019,20 +950,20 @@
       <c r="D3" s="2">
         <v>1000000000</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
+      <c r="E3" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>202.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>247.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>172.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>262.5</v>
       </c>
       <c r="J3" s="2">
         <v>1000000000</v>
@@ -1041,12 +972,12 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
+      <c r="B4" s="2">
+        <v>37.5</v>
       </c>
       <c r="C4" s="2">
         <v>1000000000</v>
@@ -1060,11 +991,11 @@
       <c r="F4" s="2">
         <v>165</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
+      <c r="G4" s="2">
+        <v>232.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>157.5</v>
       </c>
       <c r="I4" s="2">
         <v>1000000000</v>
@@ -1076,15 +1007,15 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>75</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
+      <c r="C5" s="2">
+        <v>82.5</v>
       </c>
       <c r="D5" s="2">
         <v>45</v>
@@ -1111,15 +1042,15 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>195</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
+      <c r="C6" s="2">
+        <v>202.5</v>
       </c>
       <c r="D6" s="2">
         <v>165</v>
@@ -1146,18 +1077,18 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>240</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
+      <c r="C7" s="2">
+        <v>247.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>232.5</v>
       </c>
       <c r="E7" s="2">
         <v>180</v>
@@ -1171,8 +1102,8 @@
       <c r="H7" s="2">
         <v>1000000000</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>11</v>
+      <c r="I7" s="2">
+        <v>37.5</v>
       </c>
       <c r="J7" s="2">
         <v>1000000000</v>
@@ -1181,18 +1112,18 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>165</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
+      <c r="C8" s="2">
+        <v>172.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>157.5</v>
       </c>
       <c r="E8" s="2">
         <v>1000000000</v>
@@ -1216,15 +1147,15 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>255</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
+      <c r="C9" s="2">
+        <v>262.5</v>
       </c>
       <c r="D9" s="2">
         <v>1000000000</v>
@@ -1235,8 +1166,8 @@
       <c r="F9" s="2">
         <v>1000000000</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
+      <c r="G9" s="2">
+        <v>37.5</v>
       </c>
       <c r="H9" s="2">
         <v>1000000000</v>
@@ -1251,7 +1182,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1286,7 +1217,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1331,17 +1262,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1411,7 +1342,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1427,26 +1358,26 @@
       <c r="E3" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
+      <c r="F3" s="2">
+        <v>202.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>292.5</v>
       </c>
       <c r="H3" s="2">
         <v>1000000000</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <v>247.5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>337.5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>697.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1462,11 +1393,11 @@
       <c r="E4" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
+      <c r="F4" s="2">
+        <v>157.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>247.5</v>
       </c>
       <c r="H4" s="2">
         <v>1000000000</v>
@@ -1481,7 +1412,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1516,18 +1447,18 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>180</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
+      <c r="C6" s="2">
+        <v>202.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>157.5</v>
       </c>
       <c r="E6" s="2">
         <v>135</v>
@@ -1541,28 +1472,28 @@
       <c r="H6" s="2">
         <v>1000000000</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>23</v>
+      <c r="I6" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>112.5</v>
       </c>
       <c r="K6" s="2">
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>270</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
+      <c r="C7" s="2">
+        <v>292.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>247.5</v>
       </c>
       <c r="E7" s="2">
         <v>180</v>
@@ -1579,14 +1510,14 @@
       <c r="I7" s="2">
         <v>1000000000</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>22</v>
+      <c r="J7" s="2">
+        <v>67.5</v>
       </c>
       <c r="K7" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1621,15 +1552,15 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>225</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
+      <c r="C9" s="2">
+        <v>247.5</v>
       </c>
       <c r="D9" s="2">
         <v>1000000000</v>
@@ -1637,8 +1568,8 @@
       <c r="E9" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
+      <c r="F9" s="2">
+        <v>67.5</v>
       </c>
       <c r="G9" s="2">
         <v>1000000000</v>
@@ -1656,15 +1587,15 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>315</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
+      <c r="C10" s="2">
+        <v>337.5</v>
       </c>
       <c r="D10" s="2">
         <v>1000000000</v>
@@ -1672,11 +1603,11 @@
       <c r="E10" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
+      <c r="F10" s="2">
+        <v>112.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>67.5</v>
       </c>
       <c r="H10" s="2">
         <v>1000000000</v>
@@ -1691,15 +1622,15 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>675</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
+      <c r="C11" s="2">
+        <v>697.5</v>
       </c>
       <c r="D11" s="2">
         <v>1000000000</v>
@@ -1736,19 +1667,19 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1793,8 +1724,8 @@
       <c r="C2" s="2">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
+      <c r="D2" s="2">
+        <v>37.5</v>
       </c>
       <c r="E2" s="2">
         <v>75</v>
@@ -1808,8 +1739,8 @@
       <c r="H2" s="2">
         <v>150</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
+      <c r="I2" s="2">
+        <v>262.5</v>
       </c>
       <c r="J2" s="2">
         <v>300</v>
@@ -1818,7 +1749,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1837,8 +1768,8 @@
       <c r="F3" s="2">
         <v>210</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
+      <c r="G3" s="2">
+        <v>247.5</v>
       </c>
       <c r="H3" s="2">
         <v>165</v>
@@ -1849,16 +1780,16 @@
       <c r="J3" s="2">
         <v>315</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="2">
+        <v>712.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
+      <c r="B4" s="2">
+        <v>37.5</v>
       </c>
       <c r="C4" s="2">
         <v>45</v>
@@ -1869,14 +1800,14 @@
       <c r="E4" s="2">
         <v>45</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
+      <c r="F4" s="2">
+        <v>172.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>202.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>112.5</v>
       </c>
       <c r="I4" s="2">
         <v>225</v>
@@ -1888,7 +1819,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1923,7 +1854,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1933,8 +1864,8 @@
       <c r="C6" s="2">
         <v>210</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
+      <c r="D6" s="2">
+        <v>172.5</v>
       </c>
       <c r="E6" s="2">
         <v>135</v>
@@ -1948,28 +1879,28 @@
       <c r="H6" s="2">
         <v>1000000000</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>23</v>
+      <c r="I6" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>112.5</v>
       </c>
       <c r="K6" s="2">
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>240</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
+      <c r="C7" s="2">
+        <v>247.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>202.5</v>
       </c>
       <c r="E7" s="2">
         <v>180</v>
@@ -1983,17 +1914,17 @@
       <c r="H7" s="2">
         <v>1000000000</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>22</v>
+      <c r="I7" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>67.5</v>
       </c>
       <c r="K7" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2003,8 +1934,8 @@
       <c r="C8" s="2">
         <v>165</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
+      <c r="D8" s="2">
+        <v>112.5</v>
       </c>
       <c r="E8" s="2">
         <v>95</v>
@@ -2028,12 +1959,12 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
+      <c r="B9" s="2">
+        <v>262.5</v>
       </c>
       <c r="C9" s="2">
         <v>270</v>
@@ -2044,11 +1975,11 @@
       <c r="E9" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
+      <c r="F9" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>37.5</v>
       </c>
       <c r="H9" s="2">
         <v>1000000000</v>
@@ -2063,7 +1994,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2079,11 +2010,11 @@
       <c r="E10" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
+      <c r="F10" s="2">
+        <v>112.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>67.5</v>
       </c>
       <c r="H10" s="2">
         <v>1000000000</v>
@@ -2098,15 +2029,15 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>675</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
+      <c r="C11" s="2">
+        <v>712.5</v>
       </c>
       <c r="D11" s="2">
         <v>660</v>
@@ -2144,19 +2075,19 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2191,7 +2122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2201,8 +2132,8 @@
       <c r="C2" s="2">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
+      <c r="D2" s="2">
+        <v>37.5</v>
       </c>
       <c r="E2" s="2">
         <v>75</v>
@@ -2216,8 +2147,8 @@
       <c r="H2" s="2">
         <v>150</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
+      <c r="I2" s="2">
+        <v>262.5</v>
       </c>
       <c r="J2" s="2">
         <v>300</v>
@@ -2226,7 +2157,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2245,8 +2176,8 @@
       <c r="F3" s="2">
         <v>210</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
+      <c r="G3" s="2">
+        <v>247.5</v>
       </c>
       <c r="H3" s="2">
         <v>165</v>
@@ -2257,16 +2188,16 @@
       <c r="J3" s="2">
         <v>315</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="2">
+        <v>712.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
+      <c r="B4" s="2">
+        <v>37.5</v>
       </c>
       <c r="C4" s="2">
         <v>45</v>
@@ -2277,14 +2208,14 @@
       <c r="E4" s="2">
         <v>45</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
+      <c r="F4" s="2">
+        <v>172.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>202.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>112.5</v>
       </c>
       <c r="I4" s="2">
         <v>225</v>
@@ -2296,7 +2227,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2331,7 +2262,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2341,8 +2272,8 @@
       <c r="C6" s="2">
         <v>210</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
+      <c r="D6" s="2">
+        <v>172.5</v>
       </c>
       <c r="E6" s="2">
         <v>135</v>
@@ -2356,28 +2287,28 @@
       <c r="H6" s="2">
         <v>161</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>23</v>
+      <c r="I6" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>112.5</v>
       </c>
       <c r="K6" s="2">
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>240</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
+      <c r="C7" s="2">
+        <v>247.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>202.5</v>
       </c>
       <c r="E7" s="2">
         <v>180</v>
@@ -2391,17 +2322,17 @@
       <c r="H7" s="2">
         <v>201</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>22</v>
+      <c r="I7" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>67.5</v>
       </c>
       <c r="K7" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2411,8 +2342,8 @@
       <c r="C8" s="2">
         <v>165</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
+      <c r="D8" s="2">
+        <v>112.5</v>
       </c>
       <c r="E8" s="2">
         <v>95</v>
@@ -2436,12 +2367,12 @@
         <v>634</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
+      <c r="B9" s="2">
+        <v>262.5</v>
       </c>
       <c r="C9" s="2">
         <v>270</v>
@@ -2452,11 +2383,11 @@
       <c r="E9" s="2">
         <v>190</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
+      <c r="F9" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>37.5</v>
       </c>
       <c r="H9" s="2">
         <v>206</v>
@@ -2471,7 +2402,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2487,11 +2418,11 @@
       <c r="E10" s="2">
         <v>234</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>22</v>
+      <c r="F10" s="2">
+        <v>112.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>67.5</v>
       </c>
       <c r="H10" s="2">
         <v>257</v>
@@ -2506,15 +2437,15 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>675</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
+      <c r="C11" s="2">
+        <v>712.5</v>
       </c>
       <c r="D11" s="2">
         <v>660</v>
@@ -2550,63 +2481,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AB60B7-0BE9-4A51-99A8-2B751EAF4FF8}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2622,59 +2553,59 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2688,38 +2619,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA89C9B-3D6A-45B9-B7D6-07F0C8919DAB}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>160</v>
@@ -2727,22 +2658,22 @@
       <c r="C2">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
+      <c r="D2">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E2">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.2288</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>160</v>
@@ -2750,22 +2681,22 @@
       <c r="C3">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
+      <c r="D3">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E3">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.2288</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>160</v>
@@ -2773,22 +2704,22 @@
       <c r="C4">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
+      <c r="D4">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E4">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.2288</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>160</v>
@@ -2796,22 +2727,22 @@
       <c r="C5">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
+      <c r="D5">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E5">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.2288</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>160</v>
@@ -2819,22 +2750,22 @@
       <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
+      <c r="D6">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E6">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.2288</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>160</v>
@@ -2842,22 +2773,22 @@
       <c r="C7">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
+      <c r="D7">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E7">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.2288</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>160</v>
@@ -2865,22 +2796,22 @@
       <c r="C8">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
+      <c r="D8">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E8">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.2288</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>160</v>
@@ -2888,22 +2819,22 @@
       <c r="C9">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
+      <c r="D9">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E9">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.2288</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>160</v>
@@ -2911,22 +2842,22 @@
       <c r="C10">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
+      <c r="D10">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E10">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.2288</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>160</v>
@@ -2934,22 +2865,22 @@
       <c r="C11">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
+      <c r="D11">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E11">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.2288</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>160</v>
@@ -2957,22 +2888,22 @@
       <c r="C12">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
+      <c r="D12">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E12">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.2288</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>160</v>
@@ -2980,22 +2911,22 @@
       <c r="C13">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
+      <c r="D13">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E13">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.2288</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>160</v>
@@ -3003,22 +2934,22 @@
       <c r="C14">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
+      <c r="D14">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E14">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.2288</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>160</v>
@@ -3026,22 +2957,22 @@
       <c r="C15">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
+      <c r="D15">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E15">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.2288</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>160</v>
@@ -3049,22 +2980,22 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E16">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.2288</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>51</v>
       </c>
       <c r="B17">
         <v>160</v>
@@ -3072,22 +3003,22 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E17">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.2288</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>52</v>
       </c>
       <c r="B18">
         <v>160</v>
@@ -3095,22 +3026,22 @@
       <c r="C18">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D18">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E18">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.2288</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>36</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
       </c>
       <c r="B19">
         <v>160</v>
@@ -3118,22 +3049,22 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
+      <c r="D19">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E19">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.2288</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>160</v>
@@ -3141,22 +3072,22 @@
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
+      <c r="D20">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E20">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.2288</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>160</v>
@@ -3164,22 +3095,22 @@
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
+      <c r="D21">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E21">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.2288</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>160</v>
@@ -3187,22 +3118,22 @@
       <c r="C22">
         <v>15</v>
       </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
+      <c r="D22">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E22">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.2288</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>160</v>
@@ -3210,22 +3141,22 @@
       <c r="C23">
         <v>15</v>
       </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
+      <c r="D23">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E23">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.2288</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>160</v>
@@ -3233,22 +3164,22 @@
       <c r="C24">
         <v>15</v>
       </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
+      <c r="D24">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E24">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.2288</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>160</v>
@@ -3256,22 +3187,22 @@
       <c r="C25">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
+      <c r="D25">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E25">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.2288</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>160</v>
@@ -3279,22 +3210,22 @@
       <c r="C26">
         <v>15</v>
       </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
+      <c r="D26">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E26">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.2288</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>160</v>
@@ -3302,22 +3233,22 @@
       <c r="C27">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
+      <c r="D27">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E27">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.2288</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B28">
         <v>160</v>
@@ -3325,22 +3256,22 @@
       <c r="C28">
         <v>15</v>
       </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
+      <c r="D28">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E28">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.2288</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>160</v>
@@ -3348,22 +3279,22 @@
       <c r="C29">
         <v>15</v>
       </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
+      <c r="D29">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E29">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.2288</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>160</v>
@@ -3371,22 +3302,22 @@
       <c r="C30">
         <v>15</v>
       </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
+      <c r="D30">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E30">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.2288</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B31">
         <v>160</v>
@@ -3394,22 +3325,22 @@
       <c r="C31">
         <v>15</v>
       </c>
-      <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" t="s">
-        <v>36</v>
+      <c r="D31">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E31">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.2288</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <v>160</v>
@@ -3417,22 +3348,22 @@
       <c r="C32">
         <v>15</v>
       </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" t="s">
-        <v>36</v>
+      <c r="D32">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E32">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.2288</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B33">
         <v>160</v>
@@ -3440,22 +3371,22 @@
       <c r="C33">
         <v>15</v>
       </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
+      <c r="D33">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E33">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.2288</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B34">
         <v>160</v>
@@ -3463,22 +3394,22 @@
       <c r="C34">
         <v>15</v>
       </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" t="s">
-        <v>36</v>
+      <c r="D34">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E34">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.2288</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B35">
         <v>160</v>
@@ -3486,22 +3417,22 @@
       <c r="C35">
         <v>15</v>
       </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" t="s">
-        <v>36</v>
+      <c r="D35">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E35">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.2288</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>160</v>
@@ -3509,22 +3440,22 @@
       <c r="C36">
         <v>15</v>
       </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" t="s">
-        <v>36</v>
+      <c r="D36">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E36">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.2288</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B37">
         <v>160</v>
@@ -3532,22 +3463,22 @@
       <c r="C37">
         <v>15</v>
       </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" t="s">
-        <v>36</v>
+      <c r="D37">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E37">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.2288</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B38">
         <v>160</v>
@@ -3555,22 +3486,22 @@
       <c r="C38">
         <v>15</v>
       </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" t="s">
-        <v>36</v>
+      <c r="D38">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E38">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.2288</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B39">
         <v>160</v>
@@ -3578,22 +3509,22 @@
       <c r="C39">
         <v>15</v>
       </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" t="s">
-        <v>36</v>
+      <c r="D39">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E39">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.2288</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B40">
         <v>160</v>
@@ -3601,22 +3532,22 @@
       <c r="C40">
         <v>15</v>
       </c>
-      <c r="D40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" t="s">
-        <v>36</v>
+      <c r="D40">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E40">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F40">
+        <v>0.2288</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B41">
         <v>160</v>
@@ -3624,22 +3555,22 @@
       <c r="C41">
         <v>15</v>
       </c>
-      <c r="D41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" t="s">
-        <v>36</v>
+      <c r="D41">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E41">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.2288</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B42">
         <v>160</v>
@@ -3647,22 +3578,22 @@
       <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" t="s">
-        <v>36</v>
+      <c r="D42">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E42">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.2288</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B43">
         <v>160</v>
@@ -3670,22 +3601,22 @@
       <c r="C43">
         <v>15</v>
       </c>
-      <c r="D43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" t="s">
-        <v>36</v>
+      <c r="D43">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E43">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.2288</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B44">
         <v>160</v>
@@ -3693,22 +3624,22 @@
       <c r="C44">
         <v>15</v>
       </c>
-      <c r="D44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" t="s">
-        <v>36</v>
+      <c r="D44">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E44">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.2288</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B45">
         <v>160</v>
@@ -3716,22 +3647,22 @@
       <c r="C45">
         <v>15</v>
       </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" t="s">
-        <v>36</v>
+      <c r="D45">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E45">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.2288</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B46">
         <v>160</v>
@@ -3739,22 +3670,22 @@
       <c r="C46">
         <v>15</v>
       </c>
-      <c r="D46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" t="s">
-        <v>36</v>
+      <c r="D46">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E46">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.2288</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B47">
         <v>160</v>
@@ -3762,22 +3693,22 @@
       <c r="C47">
         <v>15</v>
       </c>
-      <c r="D47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" t="s">
-        <v>36</v>
+      <c r="D47">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E47">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.2288</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B48">
         <v>160</v>
@@ -3785,22 +3716,22 @@
       <c r="C48">
         <v>15</v>
       </c>
-      <c r="D48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" t="s">
-        <v>36</v>
+      <c r="D48">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E48">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.2288</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B49">
         <v>160</v>
@@ -3808,22 +3739,22 @@
       <c r="C49">
         <v>15</v>
       </c>
-      <c r="D49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" t="s">
-        <v>36</v>
+      <c r="D49">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E49">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.2288</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B50">
         <v>160</v>
@@ -3831,22 +3762,22 @@
       <c r="C50">
         <v>15</v>
       </c>
-      <c r="D50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F50" t="s">
-        <v>36</v>
+      <c r="D50">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="E50">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F50">
+        <v>0.2288</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B51">
         <v>90</v>
@@ -3854,22 +3785,22 @@
       <c r="C51">
         <v>45</v>
       </c>
-      <c r="D51" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" t="s">
-        <v>88</v>
+      <c r="D51">
+        <v>7.54</v>
+      </c>
+      <c r="E51">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B52">
         <v>90</v>
@@ -3877,22 +3808,22 @@
       <c r="C52">
         <v>45</v>
       </c>
-      <c r="D52" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" t="s">
-        <v>87</v>
-      </c>
-      <c r="F52" t="s">
-        <v>88</v>
+      <c r="D52">
+        <v>7.54</v>
+      </c>
+      <c r="E52">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B53">
         <v>90</v>
@@ -3900,22 +3831,22 @@
       <c r="C53">
         <v>45</v>
       </c>
-      <c r="D53" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" t="s">
-        <v>87</v>
-      </c>
-      <c r="F53" t="s">
-        <v>88</v>
+      <c r="D53">
+        <v>7.54</v>
+      </c>
+      <c r="E53">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F53">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B54">
         <v>90</v>
@@ -3923,22 +3854,22 @@
       <c r="C54">
         <v>45</v>
       </c>
-      <c r="D54" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" t="s">
-        <v>87</v>
-      </c>
-      <c r="F54" t="s">
-        <v>88</v>
+      <c r="D54">
+        <v>7.54</v>
+      </c>
+      <c r="E54">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B55">
         <v>90</v>
@@ -3946,22 +3877,22 @@
       <c r="C55">
         <v>45</v>
       </c>
-      <c r="D55" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55" t="s">
-        <v>88</v>
+      <c r="D55">
+        <v>7.54</v>
+      </c>
+      <c r="E55">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F55">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B56">
         <v>90</v>
@@ -3969,22 +3900,22 @@
       <c r="C56">
         <v>45</v>
       </c>
-      <c r="D56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" t="s">
-        <v>87</v>
-      </c>
-      <c r="F56" t="s">
-        <v>88</v>
+      <c r="D56">
+        <v>7.54</v>
+      </c>
+      <c r="E56">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F56">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B57">
         <v>90</v>
@@ -3992,22 +3923,22 @@
       <c r="C57">
         <v>45</v>
       </c>
-      <c r="D57" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" t="s">
-        <v>87</v>
-      </c>
-      <c r="F57" t="s">
-        <v>88</v>
+      <c r="D57">
+        <v>7.54</v>
+      </c>
+      <c r="E57">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F57">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B58">
         <v>90</v>
@@ -4015,22 +3946,22 @@
       <c r="C58">
         <v>45</v>
       </c>
-      <c r="D58" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" t="s">
-        <v>87</v>
-      </c>
-      <c r="F58" t="s">
-        <v>88</v>
+      <c r="D58">
+        <v>7.54</v>
+      </c>
+      <c r="E58">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F58">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B59">
         <v>90</v>
@@ -4038,22 +3969,22 @@
       <c r="C59">
         <v>45</v>
       </c>
-      <c r="D59" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" t="s">
-        <v>87</v>
-      </c>
-      <c r="F59" t="s">
-        <v>88</v>
+      <c r="D59">
+        <v>7.54</v>
+      </c>
+      <c r="E59">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F59">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B60">
         <v>90</v>
@@ -4061,22 +3992,22 @@
       <c r="C60">
         <v>45</v>
       </c>
-      <c r="D60" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" t="s">
-        <v>87</v>
-      </c>
-      <c r="F60" t="s">
-        <v>88</v>
+      <c r="D60">
+        <v>7.54</v>
+      </c>
+      <c r="E60">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F60">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B61">
         <v>90</v>
@@ -4084,22 +4015,22 @@
       <c r="C61">
         <v>45</v>
       </c>
-      <c r="D61" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" t="s">
-        <v>87</v>
-      </c>
-      <c r="F61" t="s">
-        <v>88</v>
+      <c r="D61">
+        <v>7.54</v>
+      </c>
+      <c r="E61">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F61">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B62">
         <v>90</v>
@@ -4107,22 +4038,22 @@
       <c r="C62">
         <v>45</v>
       </c>
-      <c r="D62" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" t="s">
-        <v>87</v>
-      </c>
-      <c r="F62" t="s">
-        <v>88</v>
+      <c r="D62">
+        <v>7.54</v>
+      </c>
+      <c r="E62">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F62">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B63">
         <v>90</v>
@@ -4130,22 +4061,22 @@
       <c r="C63">
         <v>45</v>
       </c>
-      <c r="D63" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" t="s">
-        <v>87</v>
-      </c>
-      <c r="F63" t="s">
-        <v>88</v>
+      <c r="D63">
+        <v>7.54</v>
+      </c>
+      <c r="E63">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F63">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B64">
         <v>90</v>
@@ -4153,22 +4084,22 @@
       <c r="C64">
         <v>45</v>
       </c>
-      <c r="D64" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" t="s">
-        <v>87</v>
-      </c>
-      <c r="F64" t="s">
-        <v>88</v>
+      <c r="D64">
+        <v>7.54</v>
+      </c>
+      <c r="E64">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F64">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B65">
         <v>90</v>
@@ -4176,22 +4107,22 @@
       <c r="C65">
         <v>45</v>
       </c>
-      <c r="D65" t="s">
-        <v>86</v>
-      </c>
-      <c r="E65" t="s">
-        <v>87</v>
-      </c>
-      <c r="F65" t="s">
-        <v>88</v>
+      <c r="D65">
+        <v>7.54</v>
+      </c>
+      <c r="E65">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F65">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B66">
         <v>90</v>
@@ -4199,22 +4130,22 @@
       <c r="C66">
         <v>45</v>
       </c>
-      <c r="D66" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" t="s">
-        <v>87</v>
-      </c>
-      <c r="F66" t="s">
-        <v>88</v>
+      <c r="D66">
+        <v>7.54</v>
+      </c>
+      <c r="E66">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F66">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B67">
         <v>90</v>
@@ -4222,22 +4153,22 @@
       <c r="C67">
         <v>45</v>
       </c>
-      <c r="D67" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67" t="s">
-        <v>88</v>
+      <c r="D67">
+        <v>7.54</v>
+      </c>
+      <c r="E67">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F67">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B68">
         <v>90</v>
@@ -4245,22 +4176,22 @@
       <c r="C68">
         <v>45</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68">
+        <v>7.54</v>
+      </c>
+      <c r="E68">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F68">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>86</v>
-      </c>
-      <c r="E68" t="s">
-        <v>87</v>
-      </c>
-      <c r="F68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>106</v>
       </c>
       <c r="B69">
         <v>90</v>
@@ -4268,22 +4199,22 @@
       <c r="C69">
         <v>45</v>
       </c>
-      <c r="D69" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="D69">
+        <v>7.54</v>
+      </c>
+      <c r="E69">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F69">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>87</v>
-      </c>
-      <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>107</v>
       </c>
       <c r="B70">
         <v>90</v>
@@ -4291,22 +4222,22 @@
       <c r="C70">
         <v>45</v>
       </c>
-      <c r="D70" t="s">
-        <v>86</v>
-      </c>
-      <c r="E70" t="s">
-        <v>87</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="D70">
+        <v>7.54</v>
+      </c>
+      <c r="E70">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F70">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>88</v>
-      </c>
-      <c r="G70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>108</v>
       </c>
       <c r="B71">
         <v>90</v>
@@ -4314,22 +4245,22 @@
       <c r="C71">
         <v>45</v>
       </c>
-      <c r="D71" t="s">
-        <v>86</v>
-      </c>
-      <c r="E71" t="s">
-        <v>87</v>
-      </c>
-      <c r="F71" t="s">
-        <v>88</v>
+      <c r="D71">
+        <v>7.54</v>
+      </c>
+      <c r="E71">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F71">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B72">
         <v>90</v>
@@ -4337,22 +4268,22 @@
       <c r="C72">
         <v>45</v>
       </c>
-      <c r="D72" t="s">
-        <v>86</v>
-      </c>
-      <c r="E72" t="s">
-        <v>87</v>
-      </c>
-      <c r="F72" t="s">
-        <v>88</v>
+      <c r="D72">
+        <v>7.54</v>
+      </c>
+      <c r="E72">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F72">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B73">
         <v>90</v>
@@ -4360,22 +4291,22 @@
       <c r="C73">
         <v>45</v>
       </c>
-      <c r="D73" t="s">
-        <v>86</v>
-      </c>
-      <c r="E73" t="s">
-        <v>87</v>
-      </c>
-      <c r="F73" t="s">
-        <v>88</v>
+      <c r="D73">
+        <v>7.54</v>
+      </c>
+      <c r="E73">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F73">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B74">
         <v>90</v>
@@ -4383,22 +4314,22 @@
       <c r="C74">
         <v>45</v>
       </c>
-      <c r="D74" t="s">
-        <v>86</v>
-      </c>
-      <c r="E74" t="s">
-        <v>87</v>
-      </c>
-      <c r="F74" t="s">
-        <v>88</v>
+      <c r="D74">
+        <v>7.54</v>
+      </c>
+      <c r="E74">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F74">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B75">
         <v>90</v>
@@ -4406,22 +4337,22 @@
       <c r="C75">
         <v>45</v>
       </c>
-      <c r="D75" t="s">
-        <v>86</v>
-      </c>
-      <c r="E75" t="s">
-        <v>87</v>
-      </c>
-      <c r="F75" t="s">
-        <v>88</v>
+      <c r="D75">
+        <v>7.54</v>
+      </c>
+      <c r="E75">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F75">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B76">
         <v>90</v>
@@ -4429,22 +4360,22 @@
       <c r="C76">
         <v>45</v>
       </c>
-      <c r="D76" t="s">
-        <v>86</v>
-      </c>
-      <c r="E76" t="s">
-        <v>87</v>
-      </c>
-      <c r="F76" t="s">
-        <v>88</v>
+      <c r="D76">
+        <v>7.54</v>
+      </c>
+      <c r="E76">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F76">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B77">
         <v>90</v>
@@ -4452,22 +4383,22 @@
       <c r="C77">
         <v>45</v>
       </c>
-      <c r="D77" t="s">
-        <v>86</v>
-      </c>
-      <c r="E77" t="s">
-        <v>87</v>
-      </c>
-      <c r="F77" t="s">
-        <v>88</v>
+      <c r="D77">
+        <v>7.54</v>
+      </c>
+      <c r="E77">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F77">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B78">
         <v>90</v>
@@ -4475,22 +4406,22 @@
       <c r="C78">
         <v>45</v>
       </c>
-      <c r="D78" t="s">
-        <v>86</v>
-      </c>
-      <c r="E78" t="s">
-        <v>87</v>
-      </c>
-      <c r="F78" t="s">
-        <v>88</v>
+      <c r="D78">
+        <v>7.54</v>
+      </c>
+      <c r="E78">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F78">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B79">
         <v>90</v>
@@ -4498,22 +4429,22 @@
       <c r="C79">
         <v>45</v>
       </c>
-      <c r="D79" t="s">
-        <v>86</v>
-      </c>
-      <c r="E79" t="s">
-        <v>87</v>
-      </c>
-      <c r="F79" t="s">
-        <v>88</v>
+      <c r="D79">
+        <v>7.54</v>
+      </c>
+      <c r="E79">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F79">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B80">
         <v>90</v>
@@ -4521,22 +4452,22 @@
       <c r="C80">
         <v>45</v>
       </c>
-      <c r="D80" t="s">
-        <v>86</v>
-      </c>
-      <c r="E80" t="s">
-        <v>87</v>
-      </c>
-      <c r="F80" t="s">
-        <v>88</v>
+      <c r="D80">
+        <v>7.54</v>
+      </c>
+      <c r="E80">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F80">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B81">
         <v>90</v>
@@ -4544,22 +4475,22 @@
       <c r="C81">
         <v>45</v>
       </c>
-      <c r="D81" t="s">
-        <v>86</v>
-      </c>
-      <c r="E81" t="s">
-        <v>87</v>
-      </c>
-      <c r="F81" t="s">
-        <v>88</v>
+      <c r="D81">
+        <v>7.54</v>
+      </c>
+      <c r="E81">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F81">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B82">
         <v>90</v>
@@ -4567,22 +4498,22 @@
       <c r="C82">
         <v>45</v>
       </c>
-      <c r="D82" t="s">
-        <v>86</v>
-      </c>
-      <c r="E82" t="s">
-        <v>87</v>
-      </c>
-      <c r="F82" t="s">
-        <v>88</v>
+      <c r="D82">
+        <v>7.54</v>
+      </c>
+      <c r="E82">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F82">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B83">
         <v>90</v>
@@ -4590,22 +4521,22 @@
       <c r="C83">
         <v>45</v>
       </c>
-      <c r="D83" t="s">
-        <v>86</v>
-      </c>
-      <c r="E83" t="s">
-        <v>87</v>
-      </c>
-      <c r="F83" t="s">
-        <v>88</v>
+      <c r="D83">
+        <v>7.54</v>
+      </c>
+      <c r="E83">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F83">
+        <v>0.31459999999999999</v>
       </c>
       <c r="G83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B84">
         <v>1000</v>
@@ -4613,22 +4544,22 @@
       <c r="C84" s="3">
         <v>68.181818181818102</v>
       </c>
-      <c r="D84" t="s">
-        <v>122</v>
-      </c>
-      <c r="E84" t="s">
-        <v>123</v>
-      </c>
-      <c r="F84" t="s">
-        <v>124</v>
+      <c r="D84">
+        <v>30.98</v>
+      </c>
+      <c r="E84">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F84">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B85">
         <v>1000</v>
@@ -4636,22 +4567,22 @@
       <c r="C85">
         <v>75</v>
       </c>
-      <c r="D85" t="s">
-        <v>122</v>
-      </c>
-      <c r="E85" t="s">
-        <v>123</v>
-      </c>
-      <c r="F85" t="s">
-        <v>124</v>
+      <c r="D85">
+        <v>30.98</v>
+      </c>
+      <c r="E85">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F85">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G85">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B86">
         <v>1000</v>
@@ -4659,22 +4590,22 @@
       <c r="C86">
         <v>75</v>
       </c>
-      <c r="D86" t="s">
-        <v>122</v>
-      </c>
-      <c r="E86" t="s">
-        <v>123</v>
-      </c>
-      <c r="F86" t="s">
-        <v>124</v>
+      <c r="D86">
+        <v>30.98</v>
+      </c>
+      <c r="E86">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F86">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G86">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B87">
         <v>1000</v>
@@ -4682,22 +4613,22 @@
       <c r="C87">
         <v>75</v>
       </c>
-      <c r="D87" t="s">
-        <v>122</v>
-      </c>
-      <c r="E87" t="s">
-        <v>123</v>
-      </c>
-      <c r="F87" t="s">
-        <v>124</v>
+      <c r="D87">
+        <v>30.98</v>
+      </c>
+      <c r="E87">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F87">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B88">
         <v>1000</v>
@@ -4705,22 +4636,22 @@
       <c r="C88">
         <v>75</v>
       </c>
-      <c r="D88" t="s">
-        <v>122</v>
-      </c>
-      <c r="E88" t="s">
-        <v>123</v>
-      </c>
-      <c r="F88" t="s">
-        <v>124</v>
+      <c r="D88">
+        <v>30.98</v>
+      </c>
+      <c r="E88">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F88">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G88">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B89">
         <v>1000</v>
@@ -4728,22 +4659,22 @@
       <c r="C89">
         <v>75</v>
       </c>
-      <c r="D89" t="s">
-        <v>122</v>
-      </c>
-      <c r="E89" t="s">
-        <v>123</v>
-      </c>
-      <c r="F89" t="s">
-        <v>124</v>
+      <c r="D89">
+        <v>30.98</v>
+      </c>
+      <c r="E89">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F89">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B90">
         <v>1000</v>
@@ -4751,22 +4682,22 @@
       <c r="C90">
         <v>75</v>
       </c>
-      <c r="D90" t="s">
-        <v>122</v>
-      </c>
-      <c r="E90" t="s">
-        <v>123</v>
-      </c>
-      <c r="F90" t="s">
-        <v>124</v>
+      <c r="D90">
+        <v>30.98</v>
+      </c>
+      <c r="E90">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F90">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B91">
         <v>1000</v>
@@ -4774,22 +4705,22 @@
       <c r="C91">
         <v>75</v>
       </c>
-      <c r="D91" t="s">
-        <v>122</v>
-      </c>
-      <c r="E91" t="s">
-        <v>123</v>
-      </c>
-      <c r="F91" t="s">
-        <v>124</v>
+      <c r="D91">
+        <v>30.98</v>
+      </c>
+      <c r="E91">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F91">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G91">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B92">
         <v>1000</v>
@@ -4797,22 +4728,22 @@
       <c r="C92">
         <v>75</v>
       </c>
-      <c r="D92" t="s">
-        <v>122</v>
-      </c>
-      <c r="E92" t="s">
-        <v>123</v>
-      </c>
-      <c r="F92" t="s">
-        <v>124</v>
+      <c r="D92">
+        <v>30.98</v>
+      </c>
+      <c r="E92">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F92">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G92">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B93">
         <v>1000</v>
@@ -4820,22 +4751,22 @@
       <c r="C93">
         <v>75</v>
       </c>
-      <c r="D93" t="s">
-        <v>122</v>
-      </c>
-      <c r="E93" t="s">
-        <v>123</v>
-      </c>
-      <c r="F93" t="s">
-        <v>124</v>
+      <c r="D93">
+        <v>30.98</v>
+      </c>
+      <c r="E93">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F93">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G93">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B94">
         <v>1000</v>
@@ -4843,22 +4774,22 @@
       <c r="C94">
         <v>75</v>
       </c>
-      <c r="D94" t="s">
-        <v>122</v>
-      </c>
-      <c r="E94" t="s">
-        <v>123</v>
-      </c>
-      <c r="F94" t="s">
-        <v>124</v>
+      <c r="D94">
+        <v>30.98</v>
+      </c>
+      <c r="E94">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F94">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G94">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B95">
         <v>1000</v>
@@ -4866,22 +4797,22 @@
       <c r="C95">
         <v>75</v>
       </c>
-      <c r="D95" t="s">
-        <v>122</v>
-      </c>
-      <c r="E95" t="s">
-        <v>123</v>
-      </c>
-      <c r="F95" t="s">
-        <v>124</v>
+      <c r="D95">
+        <v>30.98</v>
+      </c>
+      <c r="E95">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F95">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G95">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B96">
         <v>1000</v>
@@ -4889,22 +4820,22 @@
       <c r="C96">
         <v>75</v>
       </c>
-      <c r="D96" t="s">
-        <v>122</v>
-      </c>
-      <c r="E96" t="s">
-        <v>123</v>
-      </c>
-      <c r="F96" t="s">
-        <v>124</v>
+      <c r="D96">
+        <v>30.98</v>
+      </c>
+      <c r="E96">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F96">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G96">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B97">
         <v>1000</v>
@@ -4912,22 +4843,22 @@
       <c r="C97">
         <v>75</v>
       </c>
-      <c r="D97" t="s">
-        <v>122</v>
-      </c>
-      <c r="E97" t="s">
-        <v>123</v>
-      </c>
-      <c r="F97" t="s">
-        <v>124</v>
+      <c r="D97">
+        <v>30.98</v>
+      </c>
+      <c r="E97">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F97">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G97">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B98">
         <v>1000</v>
@@ -4935,22 +4866,22 @@
       <c r="C98">
         <v>75</v>
       </c>
-      <c r="D98" t="s">
-        <v>122</v>
-      </c>
-      <c r="E98" t="s">
-        <v>123</v>
-      </c>
-      <c r="F98" t="s">
-        <v>124</v>
+      <c r="D98">
+        <v>30.98</v>
+      </c>
+      <c r="E98">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F98">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G98">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B99">
         <v>1000</v>
@@ -4958,22 +4889,22 @@
       <c r="C99">
         <v>75</v>
       </c>
-      <c r="D99" t="s">
-        <v>122</v>
-      </c>
-      <c r="E99" t="s">
-        <v>123</v>
-      </c>
-      <c r="F99" t="s">
-        <v>124</v>
+      <c r="D99">
+        <v>30.98</v>
+      </c>
+      <c r="E99">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F99">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G99">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B100">
         <v>1000</v>
@@ -4981,22 +4912,22 @@
       <c r="C100">
         <v>75</v>
       </c>
-      <c r="D100" t="s">
-        <v>122</v>
-      </c>
-      <c r="E100" t="s">
-        <v>123</v>
-      </c>
-      <c r="F100" t="s">
-        <v>124</v>
+      <c r="D100">
+        <v>30.98</v>
+      </c>
+      <c r="E100">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F100">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B101">
         <v>1000</v>
@@ -5004,22 +4935,22 @@
       <c r="C101">
         <v>75</v>
       </c>
-      <c r="D101" t="s">
-        <v>122</v>
-      </c>
-      <c r="E101" t="s">
-        <v>123</v>
-      </c>
-      <c r="F101" t="s">
-        <v>124</v>
+      <c r="D101">
+        <v>30.98</v>
+      </c>
+      <c r="E101">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F101">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G101">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B102">
         <v>1000</v>
@@ -5027,22 +4958,22 @@
       <c r="C102">
         <v>75</v>
       </c>
-      <c r="D102" t="s">
-        <v>122</v>
-      </c>
-      <c r="E102" t="s">
-        <v>123</v>
-      </c>
-      <c r="F102" t="s">
-        <v>124</v>
+      <c r="D102">
+        <v>30.98</v>
+      </c>
+      <c r="E102">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F102">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G102">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B103">
         <v>1000</v>
@@ -5050,22 +4981,22 @@
       <c r="C103">
         <v>75</v>
       </c>
-      <c r="D103" t="s">
-        <v>122</v>
-      </c>
-      <c r="E103" t="s">
-        <v>123</v>
-      </c>
-      <c r="F103" t="s">
-        <v>124</v>
+      <c r="D103">
+        <v>30.98</v>
+      </c>
+      <c r="E103">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F103">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G103">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B104">
         <v>1000</v>
@@ -5073,22 +5004,22 @@
       <c r="C104">
         <v>75</v>
       </c>
-      <c r="D104" t="s">
-        <v>122</v>
-      </c>
-      <c r="E104" t="s">
-        <v>123</v>
-      </c>
-      <c r="F104" t="s">
-        <v>124</v>
+      <c r="D104">
+        <v>30.98</v>
+      </c>
+      <c r="E104">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F104">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G104">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B105">
         <v>1000</v>
@@ -5096,22 +5027,22 @@
       <c r="C105">
         <v>75</v>
       </c>
-      <c r="D105" t="s">
-        <v>122</v>
-      </c>
-      <c r="E105" t="s">
-        <v>123</v>
-      </c>
-      <c r="F105" t="s">
-        <v>124</v>
+      <c r="D105">
+        <v>30.98</v>
+      </c>
+      <c r="E105">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F105">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G105">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B106">
         <v>1000</v>
@@ -5119,22 +5050,22 @@
       <c r="C106">
         <v>75</v>
       </c>
-      <c r="D106" t="s">
-        <v>122</v>
-      </c>
-      <c r="E106" t="s">
-        <v>123</v>
-      </c>
-      <c r="F106" t="s">
-        <v>124</v>
+      <c r="D106">
+        <v>30.98</v>
+      </c>
+      <c r="E106">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F106">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G106">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B107">
         <v>1000</v>
@@ -5142,22 +5073,22 @@
       <c r="C107">
         <v>75</v>
       </c>
-      <c r="D107" t="s">
-        <v>122</v>
-      </c>
-      <c r="E107" t="s">
-        <v>123</v>
-      </c>
-      <c r="F107" t="s">
-        <v>124</v>
+      <c r="D107">
+        <v>30.98</v>
+      </c>
+      <c r="E107">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F107">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G107">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B108">
         <v>1000</v>
@@ -5165,22 +5096,22 @@
       <c r="C108">
         <v>75</v>
       </c>
-      <c r="D108" t="s">
-        <v>122</v>
-      </c>
-      <c r="E108" t="s">
-        <v>123</v>
-      </c>
-      <c r="F108" t="s">
-        <v>124</v>
+      <c r="D108">
+        <v>30.98</v>
+      </c>
+      <c r="E108">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F108">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G108">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B109">
         <v>1000</v>
@@ -5188,22 +5119,22 @@
       <c r="C109">
         <v>75</v>
       </c>
-      <c r="D109" t="s">
-        <v>122</v>
-      </c>
-      <c r="E109" t="s">
-        <v>123</v>
-      </c>
-      <c r="F109" t="s">
-        <v>124</v>
+      <c r="D109">
+        <v>30.98</v>
+      </c>
+      <c r="E109">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F109">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G109">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B110">
         <v>1000</v>
@@ -5211,22 +5142,22 @@
       <c r="C110">
         <v>75</v>
       </c>
-      <c r="D110" t="s">
-        <v>122</v>
-      </c>
-      <c r="E110" t="s">
-        <v>123</v>
-      </c>
-      <c r="F110" t="s">
-        <v>124</v>
+      <c r="D110">
+        <v>30.98</v>
+      </c>
+      <c r="E110">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F110">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G110">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B111">
         <v>1000</v>
@@ -5234,22 +5165,22 @@
       <c r="C111">
         <v>75</v>
       </c>
-      <c r="D111" t="s">
-        <v>122</v>
-      </c>
-      <c r="E111" t="s">
-        <v>123</v>
-      </c>
-      <c r="F111" t="s">
-        <v>124</v>
+      <c r="D111">
+        <v>30.98</v>
+      </c>
+      <c r="E111">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F111">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G111">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B112">
         <v>1000</v>
@@ -5257,22 +5188,22 @@
       <c r="C112">
         <v>75</v>
       </c>
-      <c r="D112" t="s">
-        <v>122</v>
-      </c>
-      <c r="E112" t="s">
-        <v>123</v>
-      </c>
-      <c r="F112" t="s">
-        <v>124</v>
+      <c r="D112">
+        <v>30.98</v>
+      </c>
+      <c r="E112">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F112">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G112">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B113">
         <v>1000</v>
@@ -5280,22 +5211,22 @@
       <c r="C113">
         <v>75</v>
       </c>
-      <c r="D113" t="s">
-        <v>122</v>
-      </c>
-      <c r="E113" t="s">
-        <v>123</v>
-      </c>
-      <c r="F113" t="s">
-        <v>124</v>
+      <c r="D113">
+        <v>30.98</v>
+      </c>
+      <c r="E113">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F113">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G113">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B114">
         <v>1000</v>
@@ -5303,22 +5234,22 @@
       <c r="C114">
         <v>75</v>
       </c>
-      <c r="D114" t="s">
-        <v>122</v>
-      </c>
-      <c r="E114" t="s">
-        <v>123</v>
-      </c>
-      <c r="F114" t="s">
-        <v>124</v>
+      <c r="D114">
+        <v>30.98</v>
+      </c>
+      <c r="E114">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F114">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B115">
         <v>1000</v>
@@ -5326,22 +5257,22 @@
       <c r="C115">
         <v>75</v>
       </c>
-      <c r="D115" t="s">
-        <v>122</v>
-      </c>
-      <c r="E115" t="s">
-        <v>123</v>
-      </c>
-      <c r="F115" t="s">
-        <v>124</v>
+      <c r="D115">
+        <v>30.98</v>
+      </c>
+      <c r="E115">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F115">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G115">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B116">
         <v>1000</v>
@@ -5349,22 +5280,22 @@
       <c r="C116">
         <v>75</v>
       </c>
-      <c r="D116" t="s">
-        <v>122</v>
-      </c>
-      <c r="E116" t="s">
-        <v>123</v>
-      </c>
-      <c r="F116" t="s">
-        <v>124</v>
+      <c r="D116">
+        <v>30.98</v>
+      </c>
+      <c r="E116">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F116">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B117">
         <v>1000</v>
@@ -5372,14 +5303,14 @@
       <c r="C117">
         <v>75</v>
       </c>
-      <c r="D117" t="s">
-        <v>122</v>
-      </c>
-      <c r="E117" t="s">
-        <v>123</v>
-      </c>
-      <c r="F117" t="s">
-        <v>124</v>
+      <c r="D117">
+        <v>30.98</v>
+      </c>
+      <c r="E117">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="F117">
+        <v>0.88660000000000005</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -5398,22 +5329,22 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -5422,9 +5353,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -5433,9 +5364,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -5444,9 +5375,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -5455,9 +5386,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -5466,9 +5397,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -5477,9 +5408,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -5488,9 +5419,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -5499,9 +5430,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -5510,9 +5441,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -5521,9 +5452,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -5532,9 +5463,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -5543,9 +5474,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -5554,9 +5485,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -5565,9 +5496,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -5576,9 +5507,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -5587,9 +5518,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -5598,9 +5529,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -5609,9 +5540,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -5620,9 +5551,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -5631,9 +5562,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -5642,9 +5573,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -5653,9 +5584,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -5664,9 +5595,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -5675,9 +5606,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -5686,9 +5617,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -5697,9 +5628,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -5708,9 +5639,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -5719,9 +5650,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -5730,9 +5661,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -5741,9 +5672,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -5752,9 +5683,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -5763,9 +5694,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -5774,9 +5705,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -5785,9 +5716,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -5796,9 +5727,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -5807,9 +5738,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -5818,9 +5749,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -5829,9 +5760,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -5840,9 +5771,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -5851,9 +5782,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -5862,9 +5793,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -5873,9 +5804,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -5884,9 +5815,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -5895,9 +5826,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -5906,9 +5837,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -5917,9 +5848,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -5928,9 +5859,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -5939,9 +5870,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -5950,9 +5881,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -5961,9 +5892,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -5972,9 +5903,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -5983,9 +5914,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -5994,9 +5925,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -6005,9 +5936,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -6016,9 +5947,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -6027,9 +5958,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -6038,9 +5969,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
@@ -6049,9 +5980,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -6060,9 +5991,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -6071,9 +6002,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
@@ -6082,9 +6013,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
@@ -6093,9 +6024,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -6104,9 +6035,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -6115,9 +6046,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -6126,9 +6057,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -6137,9 +6068,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -6148,9 +6079,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -6159,9 +6090,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -6170,9 +6101,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -6181,9 +6112,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -6192,9 +6123,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -6203,9 +6134,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -6214,9 +6145,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -6225,9 +6156,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -6236,9 +6167,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
@@ -6247,9 +6178,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
@@ -6258,9 +6189,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -6269,9 +6200,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -6280,9 +6211,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -6291,9 +6222,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -6302,9 +6233,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -6313,9 +6244,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -6324,9 +6255,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -6335,9 +6266,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
@@ -6346,9 +6277,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -6357,9 +6288,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -6368,9 +6299,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
@@ -6379,9 +6310,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -6390,9 +6321,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
@@ -6401,9 +6332,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
@@ -6412,9 +6343,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -6423,9 +6354,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
@@ -6434,9 +6365,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
@@ -6445,9 +6376,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
@@ -6456,9 +6387,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
@@ -6467,9 +6398,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
@@ -6478,9 +6409,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
@@ -6489,9 +6420,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
@@ -6500,9 +6431,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -6511,9 +6442,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -6522,9 +6453,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -6533,9 +6464,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -6544,9 +6475,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -6555,9 +6486,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -6566,9 +6497,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -6577,9 +6508,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
@@ -6588,9 +6519,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
         <v>4</v>
@@ -6599,9 +6530,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
@@ -6610,9 +6541,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -6621,9 +6552,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -6632,9 +6563,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -6643,9 +6574,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -6654,9 +6585,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -6665,9 +6596,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -6676,9 +6607,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -6696,36 +6627,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C81619-2CB3-4205-9A1B-A2F4AB9AA2E4}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6748,7 +6679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6771,7 +6702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6794,7 +6725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -6817,7 +6748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>

--- a/Instances/D_EGS-r.xlsx
+++ b/Instances/D_EGS-r.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxgu\PycharmProjects\BEP_try_3.0\Instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07ed5a09c14e9223/BEP/Bestanden Bilge/Instances (Synchromodal transport planning with flexible services Mathematical model and heuristic approach)/Instances/6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC88FA0-5F56-4A3E-BF1D-3F73E5124BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="11_7BAE928675DC6F2AE1E85D869446E9E15426D3EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5C1627C-186B-4278-82F0-2A5F628986DD}"/>
   <bookViews>
-    <workbookView xWindow="4968" yWindow="888" windowWidth="17280" windowHeight="8964" tabRatio="773" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="773" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barge" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,25 @@
     <sheet name="o" sheetId="9" r:id="rId8"/>
     <sheet name="R_5" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="167">
   <si>
     <t>N</t>
   </si>
@@ -63,403 +76,472 @@
     <t>Nuremberg</t>
   </si>
   <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>82.5</t>
+  </si>
+  <si>
+    <t>202.5</t>
+  </si>
+  <si>
+    <t>247.5</t>
+  </si>
+  <si>
+    <t>172.5</t>
+  </si>
+  <si>
+    <t>262.5</t>
+  </si>
+  <si>
+    <t>232.5</t>
+  </si>
+  <si>
+    <t>157.5</t>
+  </si>
+  <si>
+    <t>292.5</t>
+  </si>
+  <si>
+    <t>337.5</t>
+  </si>
+  <si>
+    <t>697.5</t>
+  </si>
+  <si>
+    <t>67.5</t>
+  </si>
+  <si>
+    <t>112.5</t>
+  </si>
+  <si>
+    <t>712.5</t>
+  </si>
+  <si>
     <t>T</t>
   </si>
   <si>
     <t>K</t>
   </si>
   <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c1‘</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Barge1</t>
+  </si>
+  <si>
+    <t>0.6122</t>
+  </si>
+  <si>
+    <t>0.0213</t>
+  </si>
+  <si>
+    <t>0.2288</t>
+  </si>
+  <si>
+    <t>Barge2</t>
+  </si>
+  <si>
+    <t>Barge3</t>
+  </si>
+  <si>
+    <t>Barge4</t>
+  </si>
+  <si>
+    <t>Barge5</t>
+  </si>
+  <si>
+    <t>Barge6</t>
+  </si>
+  <si>
+    <t>Barge7</t>
+  </si>
+  <si>
+    <t>Barge8</t>
+  </si>
+  <si>
+    <t>Barge9</t>
+  </si>
+  <si>
+    <t>Barge10</t>
+  </si>
+  <si>
+    <t>Barge11</t>
+  </si>
+  <si>
+    <t>Barge12</t>
+  </si>
+  <si>
+    <t>Barge13</t>
+  </si>
+  <si>
+    <t>Barge14</t>
+  </si>
+  <si>
+    <t>Barge15</t>
+  </si>
+  <si>
+    <t>Barge16</t>
+  </si>
+  <si>
+    <t>Barge17</t>
+  </si>
+  <si>
+    <t>Barge18</t>
+  </si>
+  <si>
+    <t>Barge19</t>
+  </si>
+  <si>
+    <t>Barge20</t>
+  </si>
+  <si>
+    <t>Barge21</t>
+  </si>
+  <si>
+    <t>Barge22</t>
+  </si>
+  <si>
+    <t>Barge23</t>
+  </si>
+  <si>
+    <t>Barge24</t>
+  </si>
+  <si>
+    <t>Barge25</t>
+  </si>
+  <si>
+    <t>Barge26</t>
+  </si>
+  <si>
+    <t>Barge27</t>
+  </si>
+  <si>
+    <t>Barge28</t>
+  </si>
+  <si>
+    <t>Barge29</t>
+  </si>
+  <si>
+    <t>Barge30</t>
+  </si>
+  <si>
+    <t>Barge31</t>
+  </si>
+  <si>
+    <t>Barge32</t>
+  </si>
+  <si>
+    <t>Barge33</t>
+  </si>
+  <si>
+    <t>Barge34</t>
+  </si>
+  <si>
+    <t>Barge35</t>
+  </si>
+  <si>
+    <t>Barge36</t>
+  </si>
+  <si>
+    <t>Barge37</t>
+  </si>
+  <si>
+    <t>Barge38</t>
+  </si>
+  <si>
+    <t>Barge39</t>
+  </si>
+  <si>
+    <t>Barge40</t>
+  </si>
+  <si>
+    <t>Barge41</t>
+  </si>
+  <si>
+    <t>Barge42</t>
+  </si>
+  <si>
+    <t>Barge43</t>
+  </si>
+  <si>
+    <t>Barge44</t>
+  </si>
+  <si>
+    <t>Barge45</t>
+  </si>
+  <si>
+    <t>Barge46</t>
+  </si>
+  <si>
+    <t>Barge47</t>
+  </si>
+  <si>
+    <t>Barge48</t>
+  </si>
+  <si>
+    <t>Barge49</t>
+  </si>
+  <si>
+    <t>Train1</t>
+  </si>
+  <si>
+    <t>7.54</t>
+  </si>
+  <si>
+    <t>0.0635</t>
+  </si>
+  <si>
+    <t>0.3146</t>
+  </si>
+  <si>
+    <t>Train2</t>
+  </si>
+  <si>
+    <t>Train3</t>
+  </si>
+  <si>
+    <t>Train4</t>
+  </si>
+  <si>
+    <t>Train5</t>
+  </si>
+  <si>
+    <t>Train6</t>
+  </si>
+  <si>
+    <t>Train7</t>
+  </si>
+  <si>
+    <t>Train8</t>
+  </si>
+  <si>
+    <t>Train9</t>
+  </si>
+  <si>
+    <t>Train10</t>
+  </si>
+  <si>
+    <t>Train11</t>
+  </si>
+  <si>
+    <t>Train12</t>
+  </si>
+  <si>
+    <t>Train13</t>
+  </si>
+  <si>
+    <t>Train14</t>
+  </si>
+  <si>
+    <t>Train15</t>
+  </si>
+  <si>
+    <t>Train16</t>
+  </si>
+  <si>
+    <t>Train17</t>
+  </si>
+  <si>
+    <t>Train18</t>
+  </si>
+  <si>
+    <t>Train19</t>
+  </si>
+  <si>
+    <t>Train20</t>
+  </si>
+  <si>
+    <t>Train21</t>
+  </si>
+  <si>
+    <t>Train22</t>
+  </si>
+  <si>
+    <t>Train23</t>
+  </si>
+  <si>
+    <t>Train24</t>
+  </si>
+  <si>
+    <t>Train25</t>
+  </si>
+  <si>
+    <t>Train26</t>
+  </si>
+  <si>
+    <t>Train27</t>
+  </si>
+  <si>
+    <t>Train28</t>
+  </si>
+  <si>
+    <t>Train29</t>
+  </si>
+  <si>
+    <t>Train30</t>
+  </si>
+  <si>
+    <t>Train31</t>
+  </si>
+  <si>
+    <t>Train32</t>
+  </si>
+  <si>
+    <t>Train33</t>
+  </si>
+  <si>
+    <t>Truck1</t>
+  </si>
+  <si>
+    <t>30.98</t>
+  </si>
+  <si>
+    <t>0.2758</t>
+  </si>
+  <si>
+    <t>0.8866</t>
+  </si>
+  <si>
+    <t>Truck2</t>
+  </si>
+  <si>
+    <t>Truck3</t>
+  </si>
+  <si>
+    <t>Truck4</t>
+  </si>
+  <si>
+    <t>Truck5</t>
+  </si>
+  <si>
+    <t>Truck6</t>
+  </si>
+  <si>
+    <t>Truck7</t>
+  </si>
+  <si>
+    <t>Truck8</t>
+  </si>
+  <si>
+    <t>Truck9</t>
+  </si>
+  <si>
+    <t>Truck10</t>
+  </si>
+  <si>
+    <t>Truck11</t>
+  </si>
+  <si>
+    <t>Truck12</t>
+  </si>
+  <si>
+    <t>Truck13</t>
+  </si>
+  <si>
+    <t>Truck14</t>
+  </si>
+  <si>
+    <t>Truck15</t>
+  </si>
+  <si>
+    <t>Truck16</t>
+  </si>
+  <si>
+    <t>Truck17</t>
+  </si>
+  <si>
+    <t>Truck18</t>
+  </si>
+  <si>
+    <t>Truck19</t>
+  </si>
+  <si>
+    <t>Truck20</t>
+  </si>
+  <si>
+    <t>Truck21</t>
+  </si>
+  <si>
+    <t>Truck22</t>
+  </si>
+  <si>
+    <t>Truck23</t>
+  </si>
+  <si>
+    <t>Truck24</t>
+  </si>
+  <si>
+    <t>Truck25</t>
+  </si>
+  <si>
+    <t>Truck26</t>
+  </si>
+  <si>
+    <t>Truck27</t>
+  </si>
+  <si>
+    <t>Truck28</t>
+  </si>
+  <si>
+    <t>Truck29</t>
+  </si>
+  <si>
+    <t>Truck30</t>
+  </si>
+  <si>
+    <t>Truck31</t>
+  </si>
+  <si>
+    <t>Truck32</t>
+  </si>
+  <si>
+    <t>Truck33</t>
+  </si>
+  <si>
+    <t>Truck34</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>o2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>bp</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>qr</t>
+  </si>
+  <si>
     <t>u</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c1‘</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Barge1</t>
-  </si>
-  <si>
-    <t>Barge2</t>
-  </si>
-  <si>
-    <t>Barge3</t>
-  </si>
-  <si>
-    <t>Barge4</t>
-  </si>
-  <si>
-    <t>Barge5</t>
-  </si>
-  <si>
-    <t>Barge6</t>
-  </si>
-  <si>
-    <t>Barge7</t>
-  </si>
-  <si>
-    <t>Barge8</t>
-  </si>
-  <si>
-    <t>Barge9</t>
-  </si>
-  <si>
-    <t>Barge10</t>
-  </si>
-  <si>
-    <t>Barge11</t>
-  </si>
-  <si>
-    <t>Barge12</t>
-  </si>
-  <si>
-    <t>Barge13</t>
-  </si>
-  <si>
-    <t>Barge14</t>
-  </si>
-  <si>
-    <t>Barge15</t>
-  </si>
-  <si>
-    <t>Barge16</t>
-  </si>
-  <si>
-    <t>Barge17</t>
-  </si>
-  <si>
-    <t>Barge18</t>
-  </si>
-  <si>
-    <t>Barge19</t>
-  </si>
-  <si>
-    <t>Barge20</t>
-  </si>
-  <si>
-    <t>Barge21</t>
-  </si>
-  <si>
-    <t>Barge22</t>
-  </si>
-  <si>
-    <t>Barge23</t>
-  </si>
-  <si>
-    <t>Barge24</t>
-  </si>
-  <si>
-    <t>Barge25</t>
-  </si>
-  <si>
-    <t>Barge26</t>
-  </si>
-  <si>
-    <t>Barge27</t>
-  </si>
-  <si>
-    <t>Barge28</t>
-  </si>
-  <si>
-    <t>Barge29</t>
-  </si>
-  <si>
-    <t>Barge30</t>
-  </si>
-  <si>
-    <t>Barge31</t>
-  </si>
-  <si>
-    <t>Barge32</t>
-  </si>
-  <si>
-    <t>Barge33</t>
-  </si>
-  <si>
-    <t>Barge34</t>
-  </si>
-  <si>
-    <t>Barge35</t>
-  </si>
-  <si>
-    <t>Barge36</t>
-  </si>
-  <si>
-    <t>Barge37</t>
-  </si>
-  <si>
-    <t>Barge38</t>
-  </si>
-  <si>
-    <t>Barge39</t>
-  </si>
-  <si>
-    <t>Barge40</t>
-  </si>
-  <si>
-    <t>Barge41</t>
-  </si>
-  <si>
-    <t>Barge42</t>
-  </si>
-  <si>
-    <t>Barge43</t>
-  </si>
-  <si>
-    <t>Barge44</t>
-  </si>
-  <si>
-    <t>Barge45</t>
-  </si>
-  <si>
-    <t>Barge46</t>
-  </si>
-  <si>
-    <t>Barge47</t>
-  </si>
-  <si>
-    <t>Barge48</t>
-  </si>
-  <si>
-    <t>Barge49</t>
-  </si>
-  <si>
-    <t>Train1</t>
-  </si>
-  <si>
-    <t>Train2</t>
-  </si>
-  <si>
-    <t>Train3</t>
-  </si>
-  <si>
-    <t>Train4</t>
-  </si>
-  <si>
-    <t>Train5</t>
-  </si>
-  <si>
-    <t>Train6</t>
-  </si>
-  <si>
-    <t>Train7</t>
-  </si>
-  <si>
-    <t>Train8</t>
-  </si>
-  <si>
-    <t>Train9</t>
-  </si>
-  <si>
-    <t>Train10</t>
-  </si>
-  <si>
-    <t>Train11</t>
-  </si>
-  <si>
-    <t>Train12</t>
-  </si>
-  <si>
-    <t>Train13</t>
-  </si>
-  <si>
-    <t>Train14</t>
-  </si>
-  <si>
-    <t>Train15</t>
-  </si>
-  <si>
-    <t>Train16</t>
-  </si>
-  <si>
-    <t>Train17</t>
-  </si>
-  <si>
-    <t>Train18</t>
-  </si>
-  <si>
-    <t>Train19</t>
-  </si>
-  <si>
-    <t>Train20</t>
-  </si>
-  <si>
-    <t>Train21</t>
-  </si>
-  <si>
-    <t>Train22</t>
-  </si>
-  <si>
-    <t>Train23</t>
-  </si>
-  <si>
-    <t>Train24</t>
-  </si>
-  <si>
-    <t>Train25</t>
-  </si>
-  <si>
-    <t>Train26</t>
-  </si>
-  <si>
-    <t>Train27</t>
-  </si>
-  <si>
-    <t>Train28</t>
-  </si>
-  <si>
-    <t>Train29</t>
-  </si>
-  <si>
-    <t>Train30</t>
-  </si>
-  <si>
-    <t>Train31</t>
-  </si>
-  <si>
-    <t>Train32</t>
-  </si>
-  <si>
-    <t>Train33</t>
-  </si>
-  <si>
-    <t>Truck1</t>
-  </si>
-  <si>
-    <t>Truck2</t>
-  </si>
-  <si>
-    <t>Truck3</t>
-  </si>
-  <si>
-    <t>Truck4</t>
-  </si>
-  <si>
-    <t>Truck5</t>
-  </si>
-  <si>
-    <t>Truck6</t>
-  </si>
-  <si>
-    <t>Truck7</t>
-  </si>
-  <si>
-    <t>Truck8</t>
-  </si>
-  <si>
-    <t>Truck9</t>
-  </si>
-  <si>
-    <t>Truck10</t>
-  </si>
-  <si>
-    <t>Truck11</t>
-  </si>
-  <si>
-    <t>Truck12</t>
-  </si>
-  <si>
-    <t>Truck13</t>
-  </si>
-  <si>
-    <t>Truck14</t>
-  </si>
-  <si>
-    <t>Truck15</t>
-  </si>
-  <si>
-    <t>Truck16</t>
-  </si>
-  <si>
-    <t>Truck17</t>
-  </si>
-  <si>
-    <t>Truck18</t>
-  </si>
-  <si>
-    <t>Truck19</t>
-  </si>
-  <si>
-    <t>Truck20</t>
-  </si>
-  <si>
-    <t>Truck21</t>
-  </si>
-  <si>
-    <t>Truck22</t>
-  </si>
-  <si>
-    <t>Truck23</t>
-  </si>
-  <si>
-    <t>Truck24</t>
-  </si>
-  <si>
-    <t>Truck25</t>
-  </si>
-  <si>
-    <t>Truck26</t>
-  </si>
-  <si>
-    <t>Truck27</t>
-  </si>
-  <si>
-    <t>Truck28</t>
-  </si>
-  <si>
-    <t>Truck29</t>
-  </si>
-  <si>
-    <t>Truck30</t>
-  </si>
-  <si>
-    <t>Truck31</t>
-  </si>
-  <si>
-    <t>Truck32</t>
-  </si>
-  <si>
-    <t>Truck33</t>
-  </si>
-  <si>
-    <t>Truck34</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>o2</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>ap</t>
-  </si>
-  <si>
-    <t>bp</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>bd</t>
-  </si>
-  <si>
-    <t>qr</t>
   </si>
 </sst>
 </file>
@@ -519,7 +601,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -535,7 +617,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -858,16 +940,16 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,7 +984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -912,8 +994,8 @@
       <c r="C2" s="2">
         <v>15</v>
       </c>
-      <c r="D2" s="2">
-        <v>37.5</v>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>75</v>
@@ -937,7 +1019,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -950,20 +1032,20 @@
       <c r="D3" s="2">
         <v>1000000000</v>
       </c>
-      <c r="E3" s="2">
-        <v>82.5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>202.5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>247.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>172.5</v>
-      </c>
-      <c r="I3" s="2">
-        <v>262.5</v>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="J3" s="2">
         <v>1000000000</v>
@@ -972,12 +1054,12 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>37.5</v>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>1000000000</v>
@@ -991,11 +1073,11 @@
       <c r="F4" s="2">
         <v>165</v>
       </c>
-      <c r="G4" s="2">
-        <v>232.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>157.5</v>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="I4" s="2">
         <v>1000000000</v>
@@ -1007,15 +1089,15 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>75</v>
       </c>
-      <c r="C5" s="2">
-        <v>82.5</v>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>45</v>
@@ -1042,15 +1124,15 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>195</v>
       </c>
-      <c r="C6" s="2">
-        <v>202.5</v>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>165</v>
@@ -1077,18 +1159,18 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>240</v>
       </c>
-      <c r="C7" s="2">
-        <v>247.5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>232.5</v>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E7" s="2">
         <v>180</v>
@@ -1102,8 +1184,8 @@
       <c r="H7" s="2">
         <v>1000000000</v>
       </c>
-      <c r="I7" s="2">
-        <v>37.5</v>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J7" s="2">
         <v>1000000000</v>
@@ -1112,18 +1194,18 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>165</v>
       </c>
-      <c r="C8" s="2">
-        <v>172.5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>157.5</v>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="2">
         <v>1000000000</v>
@@ -1147,15 +1229,15 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>255</v>
       </c>
-      <c r="C9" s="2">
-        <v>262.5</v>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>1000000000</v>
@@ -1166,8 +1248,8 @@
       <c r="F9" s="2">
         <v>1000000000</v>
       </c>
-      <c r="G9" s="2">
-        <v>37.5</v>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H9" s="2">
         <v>1000000000</v>
@@ -1182,7 +1264,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +1299,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1262,17 +1344,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1342,7 +1424,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1358,26 +1440,26 @@
       <c r="E3" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F3" s="2">
-        <v>202.5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>292.5</v>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="H3" s="2">
         <v>1000000000</v>
       </c>
-      <c r="I3" s="2">
-        <v>247.5</v>
-      </c>
-      <c r="J3" s="2">
-        <v>337.5</v>
-      </c>
-      <c r="K3" s="2">
-        <v>697.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1393,11 +1475,11 @@
       <c r="E4" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F4" s="2">
-        <v>157.5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>247.5</v>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H4" s="2">
         <v>1000000000</v>
@@ -1412,7 +1494,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1447,18 +1529,18 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>180</v>
       </c>
-      <c r="C6" s="2">
-        <v>202.5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>157.5</v>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="2">
         <v>135</v>
@@ -1472,28 +1554,28 @@
       <c r="H6" s="2">
         <v>1000000000</v>
       </c>
-      <c r="I6" s="2">
-        <v>67.5</v>
-      </c>
-      <c r="J6" s="2">
-        <v>112.5</v>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K6" s="2">
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>270</v>
       </c>
-      <c r="C7" s="2">
-        <v>292.5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>247.5</v>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="2">
         <v>180</v>
@@ -1510,14 +1592,14 @@
       <c r="I7" s="2">
         <v>1000000000</v>
       </c>
-      <c r="J7" s="2">
-        <v>67.5</v>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K7" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1552,15 +1634,15 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>225</v>
       </c>
-      <c r="C9" s="2">
-        <v>247.5</v>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>1000000000</v>
@@ -1568,8 +1650,8 @@
       <c r="E9" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F9" s="2">
-        <v>67.5</v>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G9" s="2">
         <v>1000000000</v>
@@ -1587,15 +1669,15 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>315</v>
       </c>
-      <c r="C10" s="2">
-        <v>337.5</v>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>1000000000</v>
@@ -1603,11 +1685,11 @@
       <c r="E10" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F10" s="2">
-        <v>112.5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>67.5</v>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H10" s="2">
         <v>1000000000</v>
@@ -1622,15 +1704,15 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>675</v>
       </c>
-      <c r="C11" s="2">
-        <v>697.5</v>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="2">
         <v>1000000000</v>
@@ -1666,20 +1748,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1724,8 +1806,8 @@
       <c r="C2" s="2">
         <v>15</v>
       </c>
-      <c r="D2" s="2">
-        <v>37.5</v>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>75</v>
@@ -1739,8 +1821,8 @@
       <c r="H2" s="2">
         <v>150</v>
       </c>
-      <c r="I2" s="2">
-        <v>262.5</v>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="J2" s="2">
         <v>300</v>
@@ -1749,7 +1831,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1768,8 +1850,8 @@
       <c r="F3" s="2">
         <v>210</v>
       </c>
-      <c r="G3" s="2">
-        <v>247.5</v>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H3" s="2">
         <v>165</v>
@@ -1780,16 +1862,16 @@
       <c r="J3" s="2">
         <v>315</v>
       </c>
-      <c r="K3" s="2">
-        <v>712.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>37.5</v>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>45</v>
@@ -1800,14 +1882,14 @@
       <c r="E4" s="2">
         <v>45</v>
       </c>
-      <c r="F4" s="2">
-        <v>172.5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>202.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>112.5</v>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I4" s="2">
         <v>225</v>
@@ -1819,7 +1901,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1936,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1864,8 +1946,8 @@
       <c r="C6" s="2">
         <v>210</v>
       </c>
-      <c r="D6" s="2">
-        <v>172.5</v>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>135</v>
@@ -1879,28 +1961,28 @@
       <c r="H6" s="2">
         <v>1000000000</v>
       </c>
-      <c r="I6" s="2">
-        <v>67.5</v>
-      </c>
-      <c r="J6" s="2">
-        <v>112.5</v>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K6" s="2">
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>240</v>
       </c>
-      <c r="C7" s="2">
-        <v>247.5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>202.5</v>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>180</v>
@@ -1914,17 +1996,17 @@
       <c r="H7" s="2">
         <v>1000000000</v>
       </c>
-      <c r="I7" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="J7" s="2">
-        <v>67.5</v>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K7" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1934,8 +2016,8 @@
       <c r="C8" s="2">
         <v>165</v>
       </c>
-      <c r="D8" s="2">
-        <v>112.5</v>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="2">
         <v>95</v>
@@ -1959,12 +2041,12 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>262.5</v>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>270</v>
@@ -1975,11 +2057,11 @@
       <c r="E9" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F9" s="2">
-        <v>67.5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>37.5</v>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H9" s="2">
         <v>1000000000</v>
@@ -1991,10 +2073,10 @@
         <v>1000000000</v>
       </c>
       <c r="K9" s="2">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2010,11 +2092,11 @@
       <c r="E10" s="2">
         <v>1000000000</v>
       </c>
-      <c r="F10" s="2">
-        <v>112.5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>67.5</v>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H10" s="2">
         <v>1000000000</v>
@@ -2029,15 +2111,15 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>675</v>
       </c>
-      <c r="C11" s="2">
-        <v>712.5</v>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="2">
         <v>660</v>
@@ -2055,7 +2137,7 @@
         <v>1000000000</v>
       </c>
       <c r="I11" s="2">
-        <v>1000000000</v>
+        <v>444</v>
       </c>
       <c r="J11" s="2">
         <v>1000000000</v>
@@ -2075,19 +2157,19 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2132,8 +2214,8 @@
       <c r="C2" s="2">
         <v>15</v>
       </c>
-      <c r="D2" s="2">
-        <v>37.5</v>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>75</v>
@@ -2147,8 +2229,8 @@
       <c r="H2" s="2">
         <v>150</v>
       </c>
-      <c r="I2" s="2">
-        <v>262.5</v>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="J2" s="2">
         <v>300</v>
@@ -2157,7 +2239,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2176,8 +2258,8 @@
       <c r="F3" s="2">
         <v>210</v>
       </c>
-      <c r="G3" s="2">
-        <v>247.5</v>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H3" s="2">
         <v>165</v>
@@ -2188,16 +2270,16 @@
       <c r="J3" s="2">
         <v>315</v>
       </c>
-      <c r="K3" s="2">
-        <v>712.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>37.5</v>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>45</v>
@@ -2208,14 +2290,14 @@
       <c r="E4" s="2">
         <v>45</v>
       </c>
-      <c r="F4" s="2">
-        <v>172.5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>202.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>112.5</v>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I4" s="2">
         <v>225</v>
@@ -2227,7 +2309,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2262,7 +2344,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2272,8 +2354,8 @@
       <c r="C6" s="2">
         <v>210</v>
       </c>
-      <c r="D6" s="2">
-        <v>172.5</v>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>135</v>
@@ -2287,28 +2369,28 @@
       <c r="H6" s="2">
         <v>161</v>
       </c>
-      <c r="I6" s="2">
-        <v>67.5</v>
-      </c>
-      <c r="J6" s="2">
-        <v>112.5</v>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K6" s="2">
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>240</v>
       </c>
-      <c r="C7" s="2">
-        <v>247.5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>202.5</v>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>180</v>
@@ -2322,17 +2404,17 @@
       <c r="H7" s="2">
         <v>201</v>
       </c>
-      <c r="I7" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="J7" s="2">
-        <v>67.5</v>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K7" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2342,8 +2424,8 @@
       <c r="C8" s="2">
         <v>165</v>
       </c>
-      <c r="D8" s="2">
-        <v>112.5</v>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="2">
         <v>95</v>
@@ -2367,12 +2449,12 @@
         <v>634</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>262.5</v>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>270</v>
@@ -2383,11 +2465,11 @@
       <c r="E9" s="2">
         <v>190</v>
       </c>
-      <c r="F9" s="2">
-        <v>67.5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>37.5</v>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H9" s="2">
         <v>206</v>
@@ -2402,7 +2484,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2418,11 +2500,11 @@
       <c r="E10" s="2">
         <v>234</v>
       </c>
-      <c r="F10" s="2">
-        <v>112.5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>67.5</v>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H10" s="2">
         <v>257</v>
@@ -2437,15 +2519,15 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>675</v>
       </c>
-      <c r="C11" s="2">
-        <v>712.5</v>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="2">
         <v>660</v>
@@ -2481,63 +2563,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AB60B7-0BE9-4A51-99A8-2B751EAF4FF8}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2553,59 +2635,59 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2619,38 +2701,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA89C9B-3D6A-45B9-B7D6-07F0C8919DAB}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>160</v>
@@ -2658,22 +2740,22 @@
       <c r="C2">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E2">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F2">
-        <v>0.2288</v>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>160</v>
@@ -2681,22 +2763,22 @@
       <c r="C3">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E3">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.2288</v>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>160</v>
@@ -2704,22 +2786,22 @@
       <c r="C4">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E4">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F4">
-        <v>0.2288</v>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>160</v>
@@ -2727,22 +2809,22 @@
       <c r="C5">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E5">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.2288</v>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>160</v>
@@ -2750,22 +2832,22 @@
       <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E6">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.2288</v>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>160</v>
@@ -2773,22 +2855,22 @@
       <c r="C7">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E7">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.2288</v>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>160</v>
@@ -2796,22 +2878,22 @@
       <c r="C8">
         <v>15</v>
       </c>
-      <c r="D8">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E8">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F8">
-        <v>0.2288</v>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>160</v>
@@ -2819,22 +2901,22 @@
       <c r="C9">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E9">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F9">
-        <v>0.2288</v>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>160</v>
@@ -2842,22 +2924,22 @@
       <c r="C10">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E10">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F10">
-        <v>0.2288</v>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>160</v>
@@ -2865,22 +2947,22 @@
       <c r="C11">
         <v>15</v>
       </c>
-      <c r="D11">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E11">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F11">
-        <v>0.2288</v>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>160</v>
@@ -2888,22 +2970,22 @@
       <c r="C12">
         <v>15</v>
       </c>
-      <c r="D12">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E12">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F12">
-        <v>0.2288</v>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>160</v>
@@ -2911,22 +2993,22 @@
       <c r="C13">
         <v>15</v>
       </c>
-      <c r="D13">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E13">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F13">
-        <v>0.2288</v>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>160</v>
@@ -2934,22 +3016,22 @@
       <c r="C14">
         <v>15</v>
       </c>
-      <c r="D14">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E14">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F14">
-        <v>0.2288</v>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>160</v>
@@ -2957,22 +3039,22 @@
       <c r="C15">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E15">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F15">
-        <v>0.2288</v>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>160</v>
@@ -2980,22 +3062,22 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E16">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F16">
-        <v>0.2288</v>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>160</v>
@@ -3003,22 +3085,22 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E17">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F17">
-        <v>0.2288</v>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>160</v>
@@ -3026,22 +3108,22 @@
       <c r="C18">
         <v>15</v>
       </c>
-      <c r="D18">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E18">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F18">
-        <v>0.2288</v>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>160</v>
@@ -3049,22 +3131,22 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E19">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.2288</v>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>160</v>
@@ -3072,22 +3154,22 @@
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E20">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F20">
-        <v>0.2288</v>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>160</v>
@@ -3095,22 +3177,22 @@
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="D21">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E21">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F21">
-        <v>0.2288</v>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>160</v>
@@ -3118,22 +3200,22 @@
       <c r="C22">
         <v>15</v>
       </c>
-      <c r="D22">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E22">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F22">
-        <v>0.2288</v>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>160</v>
@@ -3141,22 +3223,22 @@
       <c r="C23">
         <v>15</v>
       </c>
-      <c r="D23">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E23">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F23">
-        <v>0.2288</v>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>160</v>
@@ -3164,22 +3246,22 @@
       <c r="C24">
         <v>15</v>
       </c>
-      <c r="D24">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E24">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F24">
-        <v>0.2288</v>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>160</v>
@@ -3187,22 +3269,22 @@
       <c r="C25">
         <v>15</v>
       </c>
-      <c r="D25">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E25">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F25">
-        <v>0.2288</v>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>160</v>
@@ -3210,22 +3292,22 @@
       <c r="C26">
         <v>15</v>
       </c>
-      <c r="D26">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E26">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F26">
-        <v>0.2288</v>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>160</v>
@@ -3233,22 +3315,22 @@
       <c r="C27">
         <v>15</v>
       </c>
-      <c r="D27">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E27">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F27">
-        <v>0.2288</v>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>160</v>
@@ -3256,22 +3338,22 @@
       <c r="C28">
         <v>15</v>
       </c>
-      <c r="D28">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E28">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F28">
-        <v>0.2288</v>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>160</v>
@@ -3279,22 +3361,22 @@
       <c r="C29">
         <v>15</v>
       </c>
-      <c r="D29">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E29">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F29">
-        <v>0.2288</v>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>160</v>
@@ -3302,22 +3384,22 @@
       <c r="C30">
         <v>15</v>
       </c>
-      <c r="D30">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E30">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F30">
-        <v>0.2288</v>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>160</v>
@@ -3325,22 +3407,22 @@
       <c r="C31">
         <v>15</v>
       </c>
-      <c r="D31">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E31">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F31">
-        <v>0.2288</v>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>160</v>
@@ -3348,22 +3430,22 @@
       <c r="C32">
         <v>15</v>
       </c>
-      <c r="D32">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E32">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F32">
-        <v>0.2288</v>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B33">
         <v>160</v>
@@ -3371,22 +3453,22 @@
       <c r="C33">
         <v>15</v>
       </c>
-      <c r="D33">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E33">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F33">
-        <v>0.2288</v>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B34">
         <v>160</v>
@@ -3394,22 +3476,22 @@
       <c r="C34">
         <v>15</v>
       </c>
-      <c r="D34">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E34">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F34">
-        <v>0.2288</v>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>160</v>
@@ -3417,22 +3499,22 @@
       <c r="C35">
         <v>15</v>
       </c>
-      <c r="D35">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E35">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F35">
-        <v>0.2288</v>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B36">
         <v>160</v>
@@ -3440,22 +3522,22 @@
       <c r="C36">
         <v>15</v>
       </c>
-      <c r="D36">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E36">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F36">
-        <v>0.2288</v>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B37">
         <v>160</v>
@@ -3463,22 +3545,22 @@
       <c r="C37">
         <v>15</v>
       </c>
-      <c r="D37">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E37">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F37">
-        <v>0.2288</v>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B38">
         <v>160</v>
@@ -3486,22 +3568,22 @@
       <c r="C38">
         <v>15</v>
       </c>
-      <c r="D38">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E38">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F38">
-        <v>0.2288</v>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B39">
         <v>160</v>
@@ -3509,22 +3591,22 @@
       <c r="C39">
         <v>15</v>
       </c>
-      <c r="D39">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E39">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F39">
-        <v>0.2288</v>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B40">
         <v>160</v>
@@ -3532,22 +3614,22 @@
       <c r="C40">
         <v>15</v>
       </c>
-      <c r="D40">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E40">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F40">
-        <v>0.2288</v>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B41">
         <v>160</v>
@@ -3555,22 +3637,22 @@
       <c r="C41">
         <v>15</v>
       </c>
-      <c r="D41">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E41">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F41">
-        <v>0.2288</v>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>35</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B42">
         <v>160</v>
@@ -3578,22 +3660,22 @@
       <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E42">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F42">
-        <v>0.2288</v>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
+        <v>35</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B43">
         <v>160</v>
@@ -3601,22 +3683,22 @@
       <c r="C43">
         <v>15</v>
       </c>
-      <c r="D43">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E43">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F43">
-        <v>0.2288</v>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" t="s">
+        <v>35</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B44">
         <v>160</v>
@@ -3624,22 +3706,22 @@
       <c r="C44">
         <v>15</v>
       </c>
-      <c r="D44">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E44">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F44">
-        <v>0.2288</v>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" t="s">
+        <v>35</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B45">
         <v>160</v>
@@ -3647,22 +3729,22 @@
       <c r="C45">
         <v>15</v>
       </c>
-      <c r="D45">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E45">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F45">
-        <v>0.2288</v>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B46">
         <v>160</v>
@@ -3670,22 +3752,22 @@
       <c r="C46">
         <v>15</v>
       </c>
-      <c r="D46">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E46">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F46">
-        <v>0.2288</v>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" t="s">
+        <v>35</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B47">
         <v>160</v>
@@ -3693,22 +3775,22 @@
       <c r="C47">
         <v>15</v>
       </c>
-      <c r="D47">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E47">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F47">
-        <v>0.2288</v>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B48">
         <v>160</v>
@@ -3716,22 +3798,22 @@
       <c r="C48">
         <v>15</v>
       </c>
-      <c r="D48">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E48">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F48">
-        <v>0.2288</v>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
+        <v>35</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B49">
         <v>160</v>
@@ -3739,22 +3821,22 @@
       <c r="C49">
         <v>15</v>
       </c>
-      <c r="D49">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E49">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F49">
-        <v>0.2288</v>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" t="s">
+        <v>35</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B50">
         <v>160</v>
@@ -3762,22 +3844,22 @@
       <c r="C50">
         <v>15</v>
       </c>
-      <c r="D50">
-        <v>0.61219999999999997</v>
-      </c>
-      <c r="E50">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F50">
-        <v>0.2288</v>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" t="s">
+        <v>35</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B51">
         <v>90</v>
@@ -3785,22 +3867,22 @@
       <c r="C51">
         <v>45</v>
       </c>
-      <c r="D51">
-        <v>7.54</v>
-      </c>
-      <c r="E51">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F51">
-        <v>0.31459999999999999</v>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" t="s">
+        <v>87</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B52">
         <v>90</v>
@@ -3808,22 +3890,22 @@
       <c r="C52">
         <v>45</v>
       </c>
-      <c r="D52">
-        <v>7.54</v>
-      </c>
-      <c r="E52">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F52">
-        <v>0.31459999999999999</v>
+      <c r="D52" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" t="s">
+        <v>87</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B53">
         <v>90</v>
@@ -3831,22 +3913,22 @@
       <c r="C53">
         <v>45</v>
       </c>
-      <c r="D53">
-        <v>7.54</v>
-      </c>
-      <c r="E53">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F53">
-        <v>0.31459999999999999</v>
+      <c r="D53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" t="s">
+        <v>87</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B54">
         <v>90</v>
@@ -3854,22 +3936,22 @@
       <c r="C54">
         <v>45</v>
       </c>
-      <c r="D54">
-        <v>7.54</v>
-      </c>
-      <c r="E54">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F54">
-        <v>0.31459999999999999</v>
+      <c r="D54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" t="s">
+        <v>87</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B55">
         <v>90</v>
@@ -3877,22 +3959,22 @@
       <c r="C55">
         <v>45</v>
       </c>
-      <c r="D55">
-        <v>7.54</v>
-      </c>
-      <c r="E55">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F55">
-        <v>0.31459999999999999</v>
+      <c r="D55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" t="s">
+        <v>87</v>
       </c>
       <c r="G55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B56">
         <v>90</v>
@@ -3900,22 +3982,22 @@
       <c r="C56">
         <v>45</v>
       </c>
-      <c r="D56">
-        <v>7.54</v>
-      </c>
-      <c r="E56">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F56">
-        <v>0.31459999999999999</v>
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" t="s">
+        <v>87</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B57">
         <v>90</v>
@@ -3923,22 +4005,22 @@
       <c r="C57">
         <v>45</v>
       </c>
-      <c r="D57">
-        <v>7.54</v>
-      </c>
-      <c r="E57">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F57">
-        <v>0.31459999999999999</v>
+      <c r="D57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" t="s">
+        <v>87</v>
       </c>
       <c r="G57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B58">
         <v>90</v>
@@ -3946,22 +4028,22 @@
       <c r="C58">
         <v>45</v>
       </c>
-      <c r="D58">
-        <v>7.54</v>
-      </c>
-      <c r="E58">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F58">
-        <v>0.31459999999999999</v>
+      <c r="D58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" t="s">
+        <v>87</v>
       </c>
       <c r="G58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B59">
         <v>90</v>
@@ -3969,22 +4051,22 @@
       <c r="C59">
         <v>45</v>
       </c>
-      <c r="D59">
-        <v>7.54</v>
-      </c>
-      <c r="E59">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F59">
-        <v>0.31459999999999999</v>
+      <c r="D59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" t="s">
+        <v>87</v>
       </c>
       <c r="G59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B60">
         <v>90</v>
@@ -3992,22 +4074,22 @@
       <c r="C60">
         <v>45</v>
       </c>
-      <c r="D60">
-        <v>7.54</v>
-      </c>
-      <c r="E60">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F60">
-        <v>0.31459999999999999</v>
+      <c r="D60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" t="s">
+        <v>87</v>
       </c>
       <c r="G60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B61">
         <v>90</v>
@@ -4015,22 +4097,22 @@
       <c r="C61">
         <v>45</v>
       </c>
-      <c r="D61">
-        <v>7.54</v>
-      </c>
-      <c r="E61">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F61">
-        <v>0.31459999999999999</v>
+      <c r="D61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" t="s">
+        <v>87</v>
       </c>
       <c r="G61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B62">
         <v>90</v>
@@ -4038,22 +4120,22 @@
       <c r="C62">
         <v>45</v>
       </c>
-      <c r="D62">
-        <v>7.54</v>
-      </c>
-      <c r="E62">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F62">
-        <v>0.31459999999999999</v>
+      <c r="D62" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" t="s">
+        <v>87</v>
       </c>
       <c r="G62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B63">
         <v>90</v>
@@ -4061,22 +4143,22 @@
       <c r="C63">
         <v>45</v>
       </c>
-      <c r="D63">
-        <v>7.54</v>
-      </c>
-      <c r="E63">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F63">
-        <v>0.31459999999999999</v>
+      <c r="D63" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" t="s">
+        <v>87</v>
       </c>
       <c r="G63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B64">
         <v>90</v>
@@ -4084,22 +4166,22 @@
       <c r="C64">
         <v>45</v>
       </c>
-      <c r="D64">
-        <v>7.54</v>
-      </c>
-      <c r="E64">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F64">
-        <v>0.31459999999999999</v>
+      <c r="D64" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" t="s">
+        <v>87</v>
       </c>
       <c r="G64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B65">
         <v>90</v>
@@ -4107,22 +4189,22 @@
       <c r="C65">
         <v>45</v>
       </c>
-      <c r="D65">
-        <v>7.54</v>
-      </c>
-      <c r="E65">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F65">
-        <v>0.31459999999999999</v>
+      <c r="D65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" t="s">
+        <v>87</v>
       </c>
       <c r="G65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B66">
         <v>90</v>
@@ -4130,22 +4212,22 @@
       <c r="C66">
         <v>45</v>
       </c>
-      <c r="D66">
-        <v>7.54</v>
-      </c>
-      <c r="E66">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F66">
-        <v>0.31459999999999999</v>
+      <c r="D66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" t="s">
+        <v>86</v>
+      </c>
+      <c r="F66" t="s">
+        <v>87</v>
       </c>
       <c r="G66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B67">
         <v>90</v>
@@ -4153,22 +4235,22 @@
       <c r="C67">
         <v>45</v>
       </c>
-      <c r="D67">
-        <v>7.54</v>
-      </c>
-      <c r="E67">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F67">
-        <v>0.31459999999999999</v>
+      <c r="D67" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" t="s">
+        <v>87</v>
       </c>
       <c r="G67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B68">
         <v>90</v>
@@ -4176,22 +4258,22 @@
       <c r="C68">
         <v>45</v>
       </c>
-      <c r="D68">
-        <v>7.54</v>
-      </c>
-      <c r="E68">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F68">
-        <v>0.31459999999999999</v>
+      <c r="D68" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" t="s">
+        <v>87</v>
       </c>
       <c r="G68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B69">
         <v>90</v>
@@ -4199,22 +4281,22 @@
       <c r="C69">
         <v>45</v>
       </c>
-      <c r="D69">
-        <v>7.54</v>
-      </c>
-      <c r="E69">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F69">
-        <v>0.31459999999999999</v>
+      <c r="D69" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" t="s">
+        <v>87</v>
       </c>
       <c r="G69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B70">
         <v>90</v>
@@ -4222,22 +4304,22 @@
       <c r="C70">
         <v>45</v>
       </c>
-      <c r="D70">
-        <v>7.54</v>
-      </c>
-      <c r="E70">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F70">
-        <v>0.31459999999999999</v>
+      <c r="D70" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" t="s">
+        <v>86</v>
+      </c>
+      <c r="F70" t="s">
+        <v>87</v>
       </c>
       <c r="G70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B71">
         <v>90</v>
@@ -4245,22 +4327,22 @@
       <c r="C71">
         <v>45</v>
       </c>
-      <c r="D71">
-        <v>7.54</v>
-      </c>
-      <c r="E71">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F71">
-        <v>0.31459999999999999</v>
+      <c r="D71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71" t="s">
+        <v>87</v>
       </c>
       <c r="G71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B72">
         <v>90</v>
@@ -4268,22 +4350,22 @@
       <c r="C72">
         <v>45</v>
       </c>
-      <c r="D72">
-        <v>7.54</v>
-      </c>
-      <c r="E72">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F72">
-        <v>0.31459999999999999</v>
+      <c r="D72" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" t="s">
+        <v>87</v>
       </c>
       <c r="G72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B73">
         <v>90</v>
@@ -4291,22 +4373,22 @@
       <c r="C73">
         <v>45</v>
       </c>
-      <c r="D73">
-        <v>7.54</v>
-      </c>
-      <c r="E73">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F73">
-        <v>0.31459999999999999</v>
+      <c r="D73" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" t="s">
+        <v>87</v>
       </c>
       <c r="G73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B74">
         <v>90</v>
@@ -4314,22 +4396,22 @@
       <c r="C74">
         <v>45</v>
       </c>
-      <c r="D74">
-        <v>7.54</v>
-      </c>
-      <c r="E74">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F74">
-        <v>0.31459999999999999</v>
+      <c r="D74" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74" t="s">
+        <v>87</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B75">
         <v>90</v>
@@ -4337,22 +4419,22 @@
       <c r="C75">
         <v>45</v>
       </c>
-      <c r="D75">
-        <v>7.54</v>
-      </c>
-      <c r="E75">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F75">
-        <v>0.31459999999999999</v>
+      <c r="D75" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" t="s">
+        <v>86</v>
+      </c>
+      <c r="F75" t="s">
+        <v>87</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B76">
         <v>90</v>
@@ -4360,22 +4442,22 @@
       <c r="C76">
         <v>45</v>
       </c>
-      <c r="D76">
-        <v>7.54</v>
-      </c>
-      <c r="E76">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F76">
-        <v>0.31459999999999999</v>
+      <c r="D76" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" t="s">
+        <v>87</v>
       </c>
       <c r="G76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B77">
         <v>90</v>
@@ -4383,22 +4465,22 @@
       <c r="C77">
         <v>45</v>
       </c>
-      <c r="D77">
-        <v>7.54</v>
-      </c>
-      <c r="E77">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F77">
-        <v>0.31459999999999999</v>
+      <c r="D77" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" t="s">
+        <v>86</v>
+      </c>
+      <c r="F77" t="s">
+        <v>87</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B78">
         <v>90</v>
@@ -4406,22 +4488,22 @@
       <c r="C78">
         <v>45</v>
       </c>
-      <c r="D78">
-        <v>7.54</v>
-      </c>
-      <c r="E78">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F78">
-        <v>0.31459999999999999</v>
+      <c r="D78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" t="s">
+        <v>86</v>
+      </c>
+      <c r="F78" t="s">
+        <v>87</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B79">
         <v>90</v>
@@ -4429,22 +4511,22 @@
       <c r="C79">
         <v>45</v>
       </c>
-      <c r="D79">
-        <v>7.54</v>
-      </c>
-      <c r="E79">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F79">
-        <v>0.31459999999999999</v>
+      <c r="D79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" t="s">
+        <v>86</v>
+      </c>
+      <c r="F79" t="s">
+        <v>87</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B80">
         <v>90</v>
@@ -4452,22 +4534,22 @@
       <c r="C80">
         <v>45</v>
       </c>
-      <c r="D80">
-        <v>7.54</v>
-      </c>
-      <c r="E80">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F80">
-        <v>0.31459999999999999</v>
+      <c r="D80" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80" t="s">
+        <v>87</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B81">
         <v>90</v>
@@ -4475,22 +4557,22 @@
       <c r="C81">
         <v>45</v>
       </c>
-      <c r="D81">
-        <v>7.54</v>
-      </c>
-      <c r="E81">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F81">
-        <v>0.31459999999999999</v>
+      <c r="D81" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" t="s">
+        <v>86</v>
+      </c>
+      <c r="F81" t="s">
+        <v>87</v>
       </c>
       <c r="G81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B82">
         <v>90</v>
@@ -4498,22 +4580,22 @@
       <c r="C82">
         <v>45</v>
       </c>
-      <c r="D82">
-        <v>7.54</v>
-      </c>
-      <c r="E82">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F82">
-        <v>0.31459999999999999</v>
+      <c r="D82" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" t="s">
+        <v>87</v>
       </c>
       <c r="G82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B83">
         <v>90</v>
@@ -4521,22 +4603,22 @@
       <c r="C83">
         <v>45</v>
       </c>
-      <c r="D83">
-        <v>7.54</v>
-      </c>
-      <c r="E83">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F83">
-        <v>0.31459999999999999</v>
+      <c r="D83" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83" t="s">
+        <v>86</v>
+      </c>
+      <c r="F83" t="s">
+        <v>87</v>
       </c>
       <c r="G83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B84">
         <v>1000</v>
@@ -4544,22 +4626,22 @@
       <c r="C84" s="3">
         <v>68.181818181818102</v>
       </c>
-      <c r="D84">
-        <v>30.98</v>
-      </c>
-      <c r="E84">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F84">
-        <v>0.88660000000000005</v>
+      <c r="D84" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" t="s">
+        <v>122</v>
+      </c>
+      <c r="F84" t="s">
+        <v>123</v>
       </c>
       <c r="G84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>1000</v>
@@ -4567,22 +4649,22 @@
       <c r="C85">
         <v>75</v>
       </c>
-      <c r="D85">
-        <v>30.98</v>
-      </c>
-      <c r="E85">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F85">
-        <v>0.88660000000000005</v>
+      <c r="D85" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" t="s">
+        <v>122</v>
+      </c>
+      <c r="F85" t="s">
+        <v>123</v>
       </c>
       <c r="G85">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>1000</v>
@@ -4590,22 +4672,22 @@
       <c r="C86">
         <v>75</v>
       </c>
-      <c r="D86">
-        <v>30.98</v>
-      </c>
-      <c r="E86">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F86">
-        <v>0.88660000000000005</v>
+      <c r="D86" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" t="s">
+        <v>122</v>
+      </c>
+      <c r="F86" t="s">
+        <v>123</v>
       </c>
       <c r="G86">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>1000</v>
@@ -4613,22 +4695,22 @@
       <c r="C87">
         <v>75</v>
       </c>
-      <c r="D87">
-        <v>30.98</v>
-      </c>
-      <c r="E87">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F87">
-        <v>0.88660000000000005</v>
+      <c r="D87" t="s">
+        <v>121</v>
+      </c>
+      <c r="E87" t="s">
+        <v>122</v>
+      </c>
+      <c r="F87" t="s">
+        <v>123</v>
       </c>
       <c r="G87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>1000</v>
@@ -4636,22 +4718,22 @@
       <c r="C88">
         <v>75</v>
       </c>
-      <c r="D88">
-        <v>30.98</v>
-      </c>
-      <c r="E88">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F88">
-        <v>0.88660000000000005</v>
+      <c r="D88" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88" t="s">
+        <v>122</v>
+      </c>
+      <c r="F88" t="s">
+        <v>123</v>
       </c>
       <c r="G88">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>1000</v>
@@ -4659,22 +4741,22 @@
       <c r="C89">
         <v>75</v>
       </c>
-      <c r="D89">
-        <v>30.98</v>
-      </c>
-      <c r="E89">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F89">
-        <v>0.88660000000000005</v>
+      <c r="D89" t="s">
+        <v>121</v>
+      </c>
+      <c r="E89" t="s">
+        <v>122</v>
+      </c>
+      <c r="F89" t="s">
+        <v>123</v>
       </c>
       <c r="G89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>1000</v>
@@ -4682,22 +4764,22 @@
       <c r="C90">
         <v>75</v>
       </c>
-      <c r="D90">
-        <v>30.98</v>
-      </c>
-      <c r="E90">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F90">
-        <v>0.88660000000000005</v>
+      <c r="D90" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" t="s">
+        <v>122</v>
+      </c>
+      <c r="F90" t="s">
+        <v>123</v>
       </c>
       <c r="G90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>1000</v>
@@ -4705,22 +4787,22 @@
       <c r="C91">
         <v>75</v>
       </c>
-      <c r="D91">
-        <v>30.98</v>
-      </c>
-      <c r="E91">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F91">
-        <v>0.88660000000000005</v>
+      <c r="D91" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" t="s">
+        <v>122</v>
+      </c>
+      <c r="F91" t="s">
+        <v>123</v>
       </c>
       <c r="G91">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>1000</v>
@@ -4728,22 +4810,22 @@
       <c r="C92">
         <v>75</v>
       </c>
-      <c r="D92">
-        <v>30.98</v>
-      </c>
-      <c r="E92">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F92">
-        <v>0.88660000000000005</v>
+      <c r="D92" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" t="s">
+        <v>122</v>
+      </c>
+      <c r="F92" t="s">
+        <v>123</v>
       </c>
       <c r="G92">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>1000</v>
@@ -4751,22 +4833,22 @@
       <c r="C93">
         <v>75</v>
       </c>
-      <c r="D93">
-        <v>30.98</v>
-      </c>
-      <c r="E93">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F93">
-        <v>0.88660000000000005</v>
+      <c r="D93" t="s">
+        <v>121</v>
+      </c>
+      <c r="E93" t="s">
+        <v>122</v>
+      </c>
+      <c r="F93" t="s">
+        <v>123</v>
       </c>
       <c r="G93">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>1000</v>
@@ -4774,22 +4856,22 @@
       <c r="C94">
         <v>75</v>
       </c>
-      <c r="D94">
-        <v>30.98</v>
-      </c>
-      <c r="E94">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F94">
-        <v>0.88660000000000005</v>
+      <c r="D94" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" t="s">
+        <v>123</v>
       </c>
       <c r="G94">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>1000</v>
@@ -4797,22 +4879,22 @@
       <c r="C95">
         <v>75</v>
       </c>
-      <c r="D95">
-        <v>30.98</v>
-      </c>
-      <c r="E95">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F95">
-        <v>0.88660000000000005</v>
+      <c r="D95" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" t="s">
+        <v>122</v>
+      </c>
+      <c r="F95" t="s">
+        <v>123</v>
       </c>
       <c r="G95">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>1000</v>
@@ -4820,22 +4902,22 @@
       <c r="C96">
         <v>75</v>
       </c>
-      <c r="D96">
-        <v>30.98</v>
-      </c>
-      <c r="E96">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F96">
-        <v>0.88660000000000005</v>
+      <c r="D96" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" t="s">
+        <v>122</v>
+      </c>
+      <c r="F96" t="s">
+        <v>123</v>
       </c>
       <c r="G96">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>1000</v>
@@ -4843,22 +4925,22 @@
       <c r="C97">
         <v>75</v>
       </c>
-      <c r="D97">
-        <v>30.98</v>
-      </c>
-      <c r="E97">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F97">
-        <v>0.88660000000000005</v>
+      <c r="D97" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" t="s">
+        <v>122</v>
+      </c>
+      <c r="F97" t="s">
+        <v>123</v>
       </c>
       <c r="G97">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>1000</v>
@@ -4866,22 +4948,22 @@
       <c r="C98">
         <v>75</v>
       </c>
-      <c r="D98">
-        <v>30.98</v>
-      </c>
-      <c r="E98">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F98">
-        <v>0.88660000000000005</v>
+      <c r="D98" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" t="s">
+        <v>123</v>
       </c>
       <c r="G98">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>1000</v>
@@ -4889,22 +4971,22 @@
       <c r="C99">
         <v>75</v>
       </c>
-      <c r="D99">
-        <v>30.98</v>
-      </c>
-      <c r="E99">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F99">
-        <v>0.88660000000000005</v>
+      <c r="D99" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" t="s">
+        <v>122</v>
+      </c>
+      <c r="F99" t="s">
+        <v>123</v>
       </c>
       <c r="G99">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>1000</v>
@@ -4912,22 +4994,22 @@
       <c r="C100">
         <v>75</v>
       </c>
-      <c r="D100">
-        <v>30.98</v>
-      </c>
-      <c r="E100">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F100">
-        <v>0.88660000000000005</v>
+      <c r="D100" t="s">
+        <v>121</v>
+      </c>
+      <c r="E100" t="s">
+        <v>122</v>
+      </c>
+      <c r="F100" t="s">
+        <v>123</v>
       </c>
       <c r="G100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>1000</v>
@@ -4935,22 +5017,22 @@
       <c r="C101">
         <v>75</v>
       </c>
-      <c r="D101">
-        <v>30.98</v>
-      </c>
-      <c r="E101">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F101">
-        <v>0.88660000000000005</v>
+      <c r="D101" t="s">
+        <v>121</v>
+      </c>
+      <c r="E101" t="s">
+        <v>122</v>
+      </c>
+      <c r="F101" t="s">
+        <v>123</v>
       </c>
       <c r="G101">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>1000</v>
@@ -4958,22 +5040,22 @@
       <c r="C102">
         <v>75</v>
       </c>
-      <c r="D102">
-        <v>30.98</v>
-      </c>
-      <c r="E102">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F102">
-        <v>0.88660000000000005</v>
+      <c r="D102" t="s">
+        <v>121</v>
+      </c>
+      <c r="E102" t="s">
+        <v>122</v>
+      </c>
+      <c r="F102" t="s">
+        <v>123</v>
       </c>
       <c r="G102">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>1000</v>
@@ -4981,22 +5063,22 @@
       <c r="C103">
         <v>75</v>
       </c>
-      <c r="D103">
-        <v>30.98</v>
-      </c>
-      <c r="E103">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F103">
-        <v>0.88660000000000005</v>
+      <c r="D103" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" t="s">
+        <v>122</v>
+      </c>
+      <c r="F103" t="s">
+        <v>123</v>
       </c>
       <c r="G103">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>1000</v>
@@ -5004,22 +5086,22 @@
       <c r="C104">
         <v>75</v>
       </c>
-      <c r="D104">
-        <v>30.98</v>
-      </c>
-      <c r="E104">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F104">
-        <v>0.88660000000000005</v>
+      <c r="D104" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104" t="s">
+        <v>123</v>
       </c>
       <c r="G104">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>1000</v>
@@ -5027,22 +5109,22 @@
       <c r="C105">
         <v>75</v>
       </c>
-      <c r="D105">
-        <v>30.98</v>
-      </c>
-      <c r="E105">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F105">
-        <v>0.88660000000000005</v>
+      <c r="D105" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105" t="s">
+        <v>122</v>
+      </c>
+      <c r="F105" t="s">
+        <v>123</v>
       </c>
       <c r="G105">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>1000</v>
@@ -5050,22 +5132,22 @@
       <c r="C106">
         <v>75</v>
       </c>
-      <c r="D106">
-        <v>30.98</v>
-      </c>
-      <c r="E106">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F106">
-        <v>0.88660000000000005</v>
+      <c r="D106" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" t="s">
+        <v>122</v>
+      </c>
+      <c r="F106" t="s">
+        <v>123</v>
       </c>
       <c r="G106">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>1000</v>
@@ -5073,22 +5155,22 @@
       <c r="C107">
         <v>75</v>
       </c>
-      <c r="D107">
-        <v>30.98</v>
-      </c>
-      <c r="E107">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F107">
-        <v>0.88660000000000005</v>
+      <c r="D107" t="s">
+        <v>121</v>
+      </c>
+      <c r="E107" t="s">
+        <v>122</v>
+      </c>
+      <c r="F107" t="s">
+        <v>123</v>
       </c>
       <c r="G107">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>1000</v>
@@ -5096,22 +5178,22 @@
       <c r="C108">
         <v>75</v>
       </c>
-      <c r="D108">
-        <v>30.98</v>
-      </c>
-      <c r="E108">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F108">
-        <v>0.88660000000000005</v>
+      <c r="D108" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" t="s">
+        <v>122</v>
+      </c>
+      <c r="F108" t="s">
+        <v>123</v>
       </c>
       <c r="G108">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>1000</v>
@@ -5119,22 +5201,22 @@
       <c r="C109">
         <v>75</v>
       </c>
-      <c r="D109">
-        <v>30.98</v>
-      </c>
-      <c r="E109">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F109">
-        <v>0.88660000000000005</v>
+      <c r="D109" t="s">
+        <v>121</v>
+      </c>
+      <c r="E109" t="s">
+        <v>122</v>
+      </c>
+      <c r="F109" t="s">
+        <v>123</v>
       </c>
       <c r="G109">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>1000</v>
@@ -5142,22 +5224,22 @@
       <c r="C110">
         <v>75</v>
       </c>
-      <c r="D110">
-        <v>30.98</v>
-      </c>
-      <c r="E110">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F110">
-        <v>0.88660000000000005</v>
+      <c r="D110" t="s">
+        <v>121</v>
+      </c>
+      <c r="E110" t="s">
+        <v>122</v>
+      </c>
+      <c r="F110" t="s">
+        <v>123</v>
       </c>
       <c r="G110">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>1000</v>
@@ -5165,22 +5247,22 @@
       <c r="C111">
         <v>75</v>
       </c>
-      <c r="D111">
-        <v>30.98</v>
-      </c>
-      <c r="E111">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F111">
-        <v>0.88660000000000005</v>
+      <c r="D111" t="s">
+        <v>121</v>
+      </c>
+      <c r="E111" t="s">
+        <v>122</v>
+      </c>
+      <c r="F111" t="s">
+        <v>123</v>
       </c>
       <c r="G111">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>1000</v>
@@ -5188,22 +5270,22 @@
       <c r="C112">
         <v>75</v>
       </c>
-      <c r="D112">
-        <v>30.98</v>
-      </c>
-      <c r="E112">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F112">
-        <v>0.88660000000000005</v>
+      <c r="D112" t="s">
+        <v>121</v>
+      </c>
+      <c r="E112" t="s">
+        <v>122</v>
+      </c>
+      <c r="F112" t="s">
+        <v>123</v>
       </c>
       <c r="G112">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>1000</v>
@@ -5211,22 +5293,22 @@
       <c r="C113">
         <v>75</v>
       </c>
-      <c r="D113">
-        <v>30.98</v>
-      </c>
-      <c r="E113">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F113">
-        <v>0.88660000000000005</v>
+      <c r="D113" t="s">
+        <v>121</v>
+      </c>
+      <c r="E113" t="s">
+        <v>122</v>
+      </c>
+      <c r="F113" t="s">
+        <v>123</v>
       </c>
       <c r="G113">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>1000</v>
@@ -5234,22 +5316,22 @@
       <c r="C114">
         <v>75</v>
       </c>
-      <c r="D114">
-        <v>30.98</v>
-      </c>
-      <c r="E114">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F114">
-        <v>0.88660000000000005</v>
+      <c r="D114" t="s">
+        <v>121</v>
+      </c>
+      <c r="E114" t="s">
+        <v>122</v>
+      </c>
+      <c r="F114" t="s">
+        <v>123</v>
       </c>
       <c r="G114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>1000</v>
@@ -5257,22 +5339,22 @@
       <c r="C115">
         <v>75</v>
       </c>
-      <c r="D115">
-        <v>30.98</v>
-      </c>
-      <c r="E115">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F115">
-        <v>0.88660000000000005</v>
+      <c r="D115" t="s">
+        <v>121</v>
+      </c>
+      <c r="E115" t="s">
+        <v>122</v>
+      </c>
+      <c r="F115" t="s">
+        <v>123</v>
       </c>
       <c r="G115">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B116">
         <v>1000</v>
@@ -5280,22 +5362,22 @@
       <c r="C116">
         <v>75</v>
       </c>
-      <c r="D116">
-        <v>30.98</v>
-      </c>
-      <c r="E116">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F116">
-        <v>0.88660000000000005</v>
+      <c r="D116" t="s">
+        <v>121</v>
+      </c>
+      <c r="E116" t="s">
+        <v>122</v>
+      </c>
+      <c r="F116" t="s">
+        <v>123</v>
       </c>
       <c r="G116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B117">
         <v>1000</v>
@@ -5303,14 +5385,14 @@
       <c r="C117">
         <v>75</v>
       </c>
-      <c r="D117">
-        <v>30.98</v>
-      </c>
-      <c r="E117">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="F117">
-        <v>0.88660000000000005</v>
+      <c r="D117" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" t="s">
+        <v>122</v>
+      </c>
+      <c r="F117" t="s">
+        <v>123</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -5326,25 +5408,25 @@
   <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -5353,9 +5435,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -5364,9 +5446,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -5375,9 +5457,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -5386,9 +5468,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -5397,9 +5479,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -5408,9 +5490,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -5419,9 +5501,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -5430,9 +5512,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -5441,9 +5523,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -5452,9 +5534,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -5463,9 +5545,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -5474,9 +5556,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -5485,9 +5567,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -5496,9 +5578,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -5507,9 +5589,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -5518,9 +5600,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -5529,9 +5611,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -5540,9 +5622,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -5551,9 +5633,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -5562,9 +5644,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -5573,9 +5655,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -5584,9 +5666,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -5595,9 +5677,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -5606,9 +5688,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -5617,9 +5699,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -5628,9 +5710,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -5639,9 +5721,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -5650,9 +5732,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -5661,9 +5743,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -5672,9 +5754,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -5683,9 +5765,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -5694,9 +5776,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -5705,9 +5787,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -5716,9 +5798,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -5727,9 +5809,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -5738,9 +5820,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -5749,9 +5831,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -5760,9 +5842,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -5771,9 +5853,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -5782,9 +5864,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -5793,9 +5875,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -5804,9 +5886,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -5815,9 +5897,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -5826,9 +5908,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -5837,9 +5919,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -5848,9 +5930,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -5859,9 +5941,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -5870,9 +5952,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -5881,9 +5963,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -5892,9 +5974,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -5903,9 +5985,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -5914,9 +5996,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -5925,9 +6007,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -5936,9 +6018,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -5947,9 +6029,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -5958,9 +6040,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -5969,9 +6051,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
@@ -5980,9 +6062,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -5991,9 +6073,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -6002,9 +6084,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
@@ -6013,9 +6095,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
@@ -6024,9 +6106,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -6035,9 +6117,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -6046,9 +6128,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -6057,9 +6139,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -6068,9 +6150,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -6079,9 +6161,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -6090,9 +6172,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -6101,9 +6183,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -6112,9 +6194,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -6123,9 +6205,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -6134,9 +6216,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -6145,9 +6227,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -6156,9 +6238,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -6167,9 +6249,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
@@ -6178,9 +6260,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
@@ -6189,9 +6271,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -6200,9 +6282,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -6211,9 +6293,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -6222,9 +6304,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -6233,9 +6315,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -6244,9 +6326,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -6255,9 +6337,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -6266,9 +6348,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
@@ -6277,9 +6359,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -6288,9 +6370,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -6299,9 +6381,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
@@ -6310,9 +6392,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -6321,9 +6403,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
@@ -6332,9 +6414,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
@@ -6343,9 +6425,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -6354,9 +6436,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
@@ -6365,9 +6447,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
@@ -6376,9 +6458,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
@@ -6387,9 +6469,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
@@ -6398,9 +6480,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
@@ -6409,9 +6491,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
@@ -6420,9 +6502,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
@@ -6431,9 +6513,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -6442,9 +6524,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -6453,9 +6535,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -6464,9 +6546,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -6475,9 +6557,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -6486,9 +6568,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -6497,9 +6579,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -6508,9 +6590,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
@@ -6519,9 +6601,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B109" t="s">
         <v>4</v>
@@ -6530,9 +6612,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
@@ -6541,9 +6623,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -6552,9 +6634,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -6563,9 +6645,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -6574,9 +6656,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -6585,9 +6667,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -6596,9 +6678,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -6607,9 +6689,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -6628,35 +6710,35 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6679,7 +6761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6702,7 +6784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6725,7 +6807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -6748,7 +6830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
